--- a/resultado1.xlsx
+++ b/resultado1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\multipagina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27d7900c6d9acc61/Documentos/AAAAA-YUSTIN/Multipagina-excell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBD8AB-927A-455A-9F03-B991E6412BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{67D21149-EA00-4B87-9572-04ECEAE9D90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212CE43B-CDF1-4C19-BB9F-F0F7F64F89C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TABLA" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLA!$A$3:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLA!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +102,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -240,7 +240,7 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -248,13 +248,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -279,6 +279,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54780CC-FB1F-413B-BC98-E38965DDA357}">
-  <dimension ref="A3:G67"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,27 +596,77 @@
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>955991</v>
+      </c>
+      <c r="E2" s="7">
+        <v>564924.84503709397</v>
+      </c>
+      <c r="F2" s="10">
+        <f>D2-E2</f>
+        <v>391066.15496290603</v>
+      </c>
+      <c r="G2" s="12">
+        <f>D2/E2</f>
+        <v>1.6922445673941424</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1821869</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2119708.8442593301</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F32" si="0">D3-E3</f>
+        <v>-297839.84425933007</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G32" si="1">D3/E3</f>
+        <v>0.85949021014562899</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -620,24 +674,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="19">
-        <v>955991</v>
+        <v>1952753</v>
       </c>
       <c r="E4" s="7">
-        <v>564924.84503709397</v>
+        <v>2444984.6237197001</v>
       </c>
       <c r="F4" s="10">
-        <f>D4-E4</f>
-        <v>391066.15496290603</v>
+        <f t="shared" si="0"/>
+        <v>-492231.62371970015</v>
       </c>
       <c r="G4" s="12">
-        <f>D4/E4</f>
-        <v>1.6922445673941424</v>
+        <f t="shared" si="1"/>
+        <v>0.79867700641370942</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,124 +699,124 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="19">
-        <v>1821869</v>
+        <v>2341947</v>
       </c>
       <c r="E5" s="7">
-        <v>2119708.8442593301</v>
+        <v>1842486.1292103699</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F34" si="0">D5-E5</f>
-        <v>-297839.84425933007</v>
+        <f t="shared" si="0"/>
+        <v>499460.87078963011</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G34" si="1">D5/E5</f>
-        <v>0.85949021014562899</v>
+        <f t="shared" si="1"/>
+        <v>1.2710798539382671</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="19">
-        <v>1952753</v>
+        <v>3400111</v>
       </c>
       <c r="E6" s="7">
-        <v>2444984.6237197001</v>
+        <v>1712878.90399156</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>-492231.62371970015</v>
+        <v>1687232.09600844</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0.79867700641370942</v>
+        <v>1.9850270746382861</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="19">
-        <v>2341947</v>
+        <v>2006916</v>
       </c>
       <c r="E7" s="7">
-        <v>1842486.1292103699</v>
+        <v>1877007.8534580499</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>499460.87078963011</v>
+        <v>129908.14654195006</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>1.2710798539382671</v>
+        <v>1.0692102306884959</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="19">
-        <v>3400111</v>
+        <v>1931332</v>
       </c>
       <c r="E8" s="7">
-        <v>1712878.90399156</v>
+        <v>1717390.8244893099</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>1687232.09600844</v>
+        <v>213941.17551069008</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>1.9850270746382861</v>
+        <v>1.1245733775096349</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="19">
-        <v>2006916</v>
+        <v>1838532</v>
       </c>
       <c r="E9" s="7">
-        <v>1877007.8534580499</v>
+        <v>1692810.79304366</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>129908.14654195006</v>
+        <v>145721.20695634</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>1.0692102306884959</v>
+        <v>1.086082394769196</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -770,24 +824,24 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="19">
-        <v>1931332</v>
+        <v>1493355</v>
       </c>
       <c r="E10" s="7">
-        <v>1717390.8244893099</v>
+        <v>1562465.7849091601</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>213941.17551069008</v>
+        <v>-69110.784909160109</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>1.1245733775096349</v>
+        <v>0.95576812908374942</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,24 +849,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="19">
-        <v>1838532</v>
+        <v>1744107</v>
       </c>
       <c r="E11" s="7">
-        <v>1692810.79304366</v>
+        <v>1663129.9956622601</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>145721.20695634</v>
+        <v>80977.004337739898</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>1.086082394769196</v>
+        <v>1.0486895218948262</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -820,124 +874,124 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="19">
-        <v>1493355</v>
+        <v>2004466</v>
       </c>
       <c r="E12" s="7">
-        <v>1562465.7849091601</v>
+        <v>1661230.3119864799</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>-69110.784909160109</v>
+        <v>343235.68801352009</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0.95576812908374942</v>
+        <v>1.2066153534142312</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="19">
-        <v>1744107</v>
+        <v>2375786</v>
       </c>
       <c r="E13" s="7">
-        <v>1663129.9956622601</v>
+        <v>1586860.44164049</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>80977.004337739898</v>
+        <v>788925.55835951003</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>1.0486895218948262</v>
+        <v>1.4971612737059108</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="19">
-        <v>2004466</v>
+        <v>1743904</v>
       </c>
       <c r="E14" s="7">
-        <v>1661230.3119864799</v>
+        <v>1581531.0997424</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>343235.68801352009</v>
+        <v>162372.90025760001</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>1.2066153534142312</v>
+        <v>1.1026681677546823</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="19">
-        <v>2375786</v>
+        <v>1695007</v>
       </c>
       <c r="E15" s="7">
-        <v>1586860.44164049</v>
+        <v>1612888.8818987799</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>788925.55835951003</v>
+        <v>82118.118101220112</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>1.4971612737059108</v>
+        <v>1.0509136860095074</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="19">
-        <v>1743904</v>
+        <v>2218028</v>
       </c>
       <c r="E16" s="7">
-        <v>1581531.0997424</v>
+        <v>1511675.4433200499</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>162372.90025760001</v>
+        <v>706352.5566799501</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>1.1026681677546823</v>
+        <v>1.4672646895213222</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -945,24 +999,24 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="19">
-        <v>1695007</v>
+        <v>1892403</v>
       </c>
       <c r="E17" s="7">
-        <v>1612888.8818987799</v>
+        <v>1630784.1043936501</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>82118.118101220112</v>
+        <v>261618.89560634992</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>1.0509136860095074</v>
+        <v>1.160425218090793</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -970,24 +1024,24 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="19">
-        <v>2218028</v>
+        <v>2041536</v>
       </c>
       <c r="E18" s="7">
-        <v>1511675.4433200499</v>
+        <v>1751792.7691023101</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>706352.5566799501</v>
+        <v>289743.23089768994</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>1.4672646895213222</v>
+        <v>1.1653981201476051</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -995,124 +1049,124 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="19">
-        <v>1892403</v>
+        <v>2178264</v>
       </c>
       <c r="E19" s="7">
-        <v>1630784.1043936501</v>
+        <v>1719657.2281192699</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>261618.89560634992</v>
+        <v>458606.77188073006</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>1.160425218090793</v>
+        <v>1.2666849906956705</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+      <c r="B20" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="19">
-        <v>2041536</v>
+        <v>3009477</v>
       </c>
       <c r="E20" s="7">
-        <v>1751792.7691023101</v>
+        <v>1714511.1695834999</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>289743.23089768994</v>
+        <v>1294965.8304165001</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>1.1653981201476051</v>
+        <v>1.7552974010260205</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="19">
-        <v>2178264</v>
+        <v>1700700</v>
       </c>
       <c r="E21" s="7">
-        <v>1719657.2281192699</v>
+        <v>1519966.0078203301</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>458606.77188073006</v>
+        <v>180733.99217966991</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>1.2666849906956705</v>
+        <v>1.1189066013646234</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="19">
-        <v>3009477</v>
+        <v>1454849</v>
       </c>
       <c r="E22" s="7">
-        <v>1714511.1695834999</v>
+        <v>1337064.9065664301</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>1294965.8304165001</v>
+        <v>117784.09343356988</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>1.7552974010260205</v>
+        <v>1.0880915300784</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="19">
-        <v>1700700</v>
+        <v>1707386</v>
       </c>
       <c r="E23" s="7">
-        <v>1519966.0078203301</v>
+        <v>1293957.6259230201</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="0"/>
-        <v>180733.99217966991</v>
+        <v>413428.37407697993</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>1.1189066013646234</v>
+        <v>1.319506887856601</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1120,24 +1174,24 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" s="19">
-        <v>1454849</v>
+        <v>1368291</v>
       </c>
       <c r="E24" s="7">
-        <v>1337064.9065664301</v>
+        <v>1391417.41971651</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>117784.09343356988</v>
+        <v>-23126.41971650999</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>1.0880915300784</v>
+        <v>0.98337923660520088</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1145,24 +1199,24 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="19">
-        <v>1707386</v>
+        <v>1471290</v>
       </c>
       <c r="E25" s="7">
-        <v>1293957.6259230201</v>
+        <v>1373412.3984507101</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="0"/>
-        <v>413428.37407697993</v>
+        <v>97877.601549289888</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>1.319506887856601</v>
+        <v>1.0712659953118973</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1170,124 +1224,124 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" s="19">
-        <v>1368291</v>
+        <v>2034937</v>
       </c>
       <c r="E26" s="7">
-        <v>1391417.41971651</v>
+        <v>1467984.6939028201</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="0"/>
-        <v>-23126.41971650999</v>
+        <v>566952.30609717988</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>0.98337923660520088</v>
+        <v>1.3862113198127881</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
+      <c r="B27" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="19">
-        <v>1471290</v>
+        <v>2443255</v>
       </c>
       <c r="E27" s="7">
-        <v>1373412.3984507101</v>
+        <v>1505436.2367418299</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="0"/>
-        <v>97877.601549289888</v>
+        <v>937818.7632581701</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>1.0712659953118973</v>
+        <v>1.6229548222433272</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="19">
-        <v>2034937</v>
+        <v>1568692</v>
       </c>
       <c r="E28" s="7">
-        <v>1467984.6939028201</v>
+        <v>1519965.3860420899</v>
       </c>
       <c r="F28" s="10">
         <f t="shared" si="0"/>
-        <v>566952.30609717988</v>
+        <v>48726.6139579101</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>1.3862113198127881</v>
+        <v>1.0320577128962072</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" s="19">
-        <v>2443255</v>
+        <v>1477293</v>
       </c>
       <c r="E29" s="7">
-        <v>1505436.2367418299</v>
+        <v>1336997.05376456</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="0"/>
-        <v>937818.7632581701</v>
+        <v>140295.94623543997</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>1.6229548222433272</v>
+        <v>1.1049336240797323</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="19">
-        <v>1568692</v>
+        <v>1444346</v>
       </c>
       <c r="E30" s="7">
-        <v>1519965.3860420899</v>
+        <v>1293956.1714782601</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="0"/>
-        <v>48726.6139579101</v>
+        <v>150389.82852173992</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>1.0320577128962072</v>
+        <v>1.116224824176177</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1295,49 +1349,49 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>28</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1477293</v>
+        <v>30</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1604306</v>
       </c>
       <c r="E31" s="7">
-        <v>1336997.05376456</v>
+        <v>1442465.9929897799</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
-        <v>140295.94623543997</v>
+        <v>161840.00701022008</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>1.1049336240797323</v>
+        <v>1.1121967573563218</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>29</v>
-      </c>
-      <c r="D32" s="19">
-        <v>1444346</v>
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2103244</v>
       </c>
       <c r="E32" s="7">
-        <v>1293956.1714782601</v>
+        <v>1870607.82200305</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="0"/>
-        <v>150389.82852173992</v>
+        <v>232636.17799694999</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>1.116224824176177</v>
+        <v>1.1243639501880425</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1345,74 +1399,74 @@
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1">
-        <v>30</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1604306</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1442465.9929897799</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10">
+        <f>SUM(D2:D32)</f>
+        <v>59024373</v>
+      </c>
+      <c r="E33" s="11">
+        <f>SUM(E2:E32)</f>
+        <v>49321951.762966812</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="0"/>
-        <v>161840.00701022008</v>
+        <f>SUM(F2:F32)</f>
+        <v>9702421.2370331865</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1121967573563218</v>
+        <f>D33/E33</f>
+        <v>1.1967160846282285</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="8">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2103244</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1870607.82200305</v>
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1487218</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1694969.44069849</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="0"/>
-        <v>232636.17799694999</v>
+        <f>D34-E34</f>
+        <v>-207751.44069849001</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1243639501880425</v>
+        <f>D34/E34</f>
+        <v>0.87743056853409906</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10">
-        <f>SUM(D4:D34)</f>
-        <v>59024373</v>
-      </c>
-      <c r="E35" s="11">
-        <f>SUM(E4:E34)</f>
-        <v>49321951.762966812</v>
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="20">
+        <v>4517547</v>
+      </c>
+      <c r="E35" s="13">
+        <v>6422704.4656175803</v>
       </c>
       <c r="F35" s="10">
-        <f>SUM(F4:F34)</f>
-        <v>9702421.2370331865</v>
+        <f t="shared" ref="F35:F64" si="2">D35-E35</f>
+        <v>-1905157.4656175803</v>
       </c>
       <c r="G35" s="12">
-        <f>D35/E35</f>
-        <v>1.1967160846282285</v>
+        <f t="shared" ref="G35:G64" si="3">D35/E35</f>
+        <v>0.70337145733290585</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1420,24 +1474,24 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="20">
-        <v>1487218</v>
+        <v>5271341</v>
       </c>
       <c r="E36" s="13">
-        <v>1694969.44069849</v>
+        <v>7418088.86177551</v>
       </c>
       <c r="F36" s="10">
-        <f>D36-E36</f>
-        <v>-207751.44069849001</v>
+        <f t="shared" si="2"/>
+        <v>-2146747.86177551</v>
       </c>
       <c r="G36" s="12">
-        <f>D36/E36</f>
-        <v>0.87743056853409906</v>
+        <f t="shared" si="3"/>
+        <v>0.71060634325406435</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1445,124 +1499,124 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="20">
-        <v>4517547</v>
+        <v>5847363</v>
       </c>
       <c r="E37" s="13">
-        <v>6422704.4656175803</v>
+        <v>5568927.3603249099</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" ref="F37:F66" si="2">D37-E37</f>
-        <v>-1905157.4656175803</v>
+        <f t="shared" si="2"/>
+        <v>278435.63967509009</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" ref="G37:G66" si="3">D37/E37</f>
-        <v>0.70337145733290585</v>
+        <f t="shared" si="3"/>
+        <v>1.0499980735354475</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
+      <c r="B38" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="20">
-        <v>5271341</v>
+        <v>5681443</v>
       </c>
       <c r="E38" s="13">
-        <v>7418088.86177551</v>
+        <v>5149950.7198550999</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" si="2"/>
-        <v>-2146747.86177551</v>
+        <v>531492.28014490008</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="3"/>
-        <v>0.71060634325406435</v>
+        <v>1.1032033720431123</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="20">
-        <v>5847363</v>
+        <v>5461373</v>
       </c>
       <c r="E39" s="13">
-        <v>5568927.3603249099</v>
+        <v>5673268.9344390295</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="2"/>
-        <v>278435.63967509009</v>
+        <v>-211895.93443902954</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="3"/>
-        <v>1.0499980735354475</v>
+        <v>0.96265011638127429</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>2</v>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" s="20">
-        <v>5681443</v>
+        <v>4639629</v>
       </c>
       <c r="E40" s="13">
-        <v>5149950.7198550999</v>
+        <v>5198695.7863361398</v>
       </c>
       <c r="F40" s="10">
         <f t="shared" si="2"/>
-        <v>531492.28014490008</v>
+        <v>-559066.78633613978</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="3"/>
-        <v>1.1032033720431123</v>
+        <v>0.89246018437825336</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>3</v>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" s="20">
-        <v>5461373</v>
+        <v>4547918</v>
       </c>
       <c r="E41" s="13">
-        <v>5673268.9344390295</v>
+        <v>5137700.9672603803</v>
       </c>
       <c r="F41" s="10">
         <f t="shared" si="2"/>
-        <v>-211895.93443902954</v>
+        <v>-589782.96726038028</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="3"/>
-        <v>0.96265011638127429</v>
+        <v>0.88520488618961501</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1570,24 +1624,24 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42" s="20">
-        <v>4639629</v>
+        <v>4000151</v>
       </c>
       <c r="E42" s="13">
-        <v>5198695.7863361398</v>
+        <v>4728375.2685003905</v>
       </c>
       <c r="F42" s="10">
         <f t="shared" si="2"/>
-        <v>-559066.78633613978</v>
+        <v>-728224.26850039046</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="3"/>
-        <v>0.89246018437825336</v>
+        <v>0.84598847867433591</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1595,24 +1649,24 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43" s="20">
-        <v>4547918</v>
+        <v>4271516</v>
       </c>
       <c r="E43" s="13">
-        <v>5137700.9672603803</v>
+        <v>5039129.3077793699</v>
       </c>
       <c r="F43" s="10">
         <f t="shared" si="2"/>
-        <v>-589782.96726038028</v>
+        <v>-767613.30777936988</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="3"/>
-        <v>0.88520488618961501</v>
+        <v>0.84766945619070855</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1620,124 +1674,124 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44" s="20">
-        <v>4000151</v>
+        <v>4465054</v>
       </c>
       <c r="E44" s="13">
-        <v>4728375.2685003905</v>
+        <v>5016047.4466779903</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="2"/>
-        <v>-728224.26850039046</v>
+        <v>-550993.44667799026</v>
       </c>
       <c r="G44" s="12">
         <f t="shared" si="3"/>
-        <v>0.84598847867433591</v>
+        <v>0.89015386067711533</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45" s="20">
-        <v>4271516</v>
+        <v>4180206</v>
       </c>
       <c r="E45" s="13">
-        <v>5039129.3077793699</v>
+        <v>4775761.5873270296</v>
       </c>
       <c r="F45" s="10">
         <f t="shared" si="2"/>
-        <v>-767613.30777936988</v>
+        <v>-595555.58732702956</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="3"/>
-        <v>0.84766945619070855</v>
+        <v>0.87529620638781525</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="20">
-        <v>4465054</v>
+        <v>4905810</v>
       </c>
       <c r="E46" s="13">
-        <v>5016047.4466779903</v>
+        <v>4698282.9478772897</v>
       </c>
       <c r="F46" s="10">
         <f t="shared" si="2"/>
-        <v>-550993.44667799026</v>
+        <v>207527.05212271027</v>
       </c>
       <c r="G46" s="12">
         <f t="shared" si="3"/>
-        <v>0.89015386067711533</v>
+        <v>1.0441708288804683</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>2</v>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C47" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="20">
-        <v>4180206</v>
+        <v>4957464</v>
       </c>
       <c r="E47" s="13">
-        <v>4775761.5873270296</v>
+        <v>4838241.9352825396</v>
       </c>
       <c r="F47" s="10">
         <f t="shared" si="2"/>
-        <v>-595555.58732702956</v>
+        <v>119222.06471746042</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="3"/>
-        <v>0.87529620638781525</v>
+        <v>1.0246416087314778</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="20">
-        <v>4905810</v>
+        <v>4635433</v>
       </c>
       <c r="E48" s="13">
-        <v>4698282.9478772897</v>
+        <v>4520214.8451377396</v>
       </c>
       <c r="F48" s="10">
         <f t="shared" si="2"/>
-        <v>207527.05212271027</v>
+        <v>115218.15486226045</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="3"/>
-        <v>1.0441708288804683</v>
+        <v>1.0254895306549858</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1745,24 +1799,24 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="20">
-        <v>4957464</v>
+        <v>4792487</v>
       </c>
       <c r="E49" s="13">
-        <v>4838241.9352825396</v>
+        <v>4877102.0930637503</v>
       </c>
       <c r="F49" s="10">
         <f t="shared" si="2"/>
-        <v>119222.06471746042</v>
+        <v>-84615.093063750304</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="3"/>
-        <v>1.0246416087314778</v>
+        <v>0.98265053889601972</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1770,24 +1824,24 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" s="20">
-        <v>4635433</v>
+        <v>4407844</v>
       </c>
       <c r="E50" s="13">
-        <v>4520214.8451377396</v>
+        <v>5307106.6647968804</v>
       </c>
       <c r="F50" s="10">
         <f t="shared" si="2"/>
-        <v>115218.15486226045</v>
+        <v>-899262.66479688045</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="3"/>
-        <v>1.0254895306549858</v>
+        <v>0.83055500452593634</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1795,124 +1849,124 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51" s="20">
-        <v>4792487</v>
+        <v>4691769</v>
       </c>
       <c r="E51" s="13">
-        <v>4877102.0930637503</v>
+        <v>5205926.2498601396</v>
       </c>
       <c r="F51" s="10">
         <f t="shared" si="2"/>
-        <v>-84615.093063750304</v>
+        <v>-514157.24986013956</v>
       </c>
       <c r="G51" s="12">
         <f t="shared" si="3"/>
-        <v>0.98265053889601972</v>
+        <v>0.90123616332944545</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
+      <c r="B52" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D52" s="20">
-        <v>4407844</v>
+        <v>2422523</v>
       </c>
       <c r="E52" s="13">
-        <v>5307106.6647968804</v>
+        <v>5175399.7361220503</v>
       </c>
       <c r="F52" s="10">
         <f t="shared" si="2"/>
-        <v>-899262.66479688045</v>
+        <v>-2752876.7361220503</v>
       </c>
       <c r="G52" s="12">
         <f t="shared" si="3"/>
-        <v>0.83055500452593634</v>
+        <v>0.46808422991790138</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="20">
-        <v>4691769</v>
+        <v>4172288</v>
       </c>
       <c r="E53" s="13">
-        <v>5205926.2498601396</v>
+        <v>4610574.6114600301</v>
       </c>
       <c r="F53" s="10">
         <f t="shared" si="2"/>
-        <v>-514157.24986013956</v>
+        <v>-438286.61146003008</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="3"/>
-        <v>0.90123616332944545</v>
+        <v>0.90493883118806362</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>2</v>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" s="20">
-        <v>2422523</v>
+        <v>4225526</v>
       </c>
       <c r="E54" s="13">
-        <v>5175399.7361220503</v>
+        <v>4043513.0024532601</v>
       </c>
       <c r="F54" s="10">
         <f t="shared" si="2"/>
-        <v>-2752876.7361220503</v>
+        <v>182012.99754673988</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="3"/>
-        <v>0.46808422991790138</v>
+        <v>1.0450135803783269</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>3</v>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D55" s="20">
-        <v>4172288</v>
+        <v>4025213</v>
       </c>
       <c r="E55" s="13">
-        <v>4610574.6114600301</v>
+        <v>3917600.3635215699</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" si="2"/>
-        <v>-438286.61146003008</v>
+        <v>107612.63647843013</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="3"/>
-        <v>0.90493883118806362</v>
+        <v>1.0274690184022996</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1920,24 +1974,24 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D56" s="20">
-        <v>4225526</v>
+        <v>3684883</v>
       </c>
       <c r="E56" s="13">
-        <v>4043513.0024532601</v>
+        <v>4218852.0824257899</v>
       </c>
       <c r="F56" s="10">
         <f t="shared" si="2"/>
-        <v>182012.99754673988</v>
+        <v>-533969.08242578991</v>
       </c>
       <c r="G56" s="12">
         <f t="shared" si="3"/>
-        <v>1.0450135803783269</v>
+        <v>0.87343261342342104</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1945,24 +1999,24 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="20">
-        <v>4025213</v>
+        <v>4372394</v>
       </c>
       <c r="E57" s="13">
-        <v>3917600.3635215699</v>
+        <v>4146280.9971132199</v>
       </c>
       <c r="F57" s="10">
         <f t="shared" si="2"/>
-        <v>107612.63647843013</v>
+        <v>226113.00288678007</v>
       </c>
       <c r="G57" s="12">
         <f t="shared" si="3"/>
-        <v>1.0274690184022996</v>
+        <v>1.0545339312613418</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,124 +2024,124 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D58" s="20">
-        <v>3684883</v>
+        <v>4356432</v>
       </c>
       <c r="E58" s="13">
-        <v>4218852.0824257899</v>
+        <v>4431298.4494092502</v>
       </c>
       <c r="F58" s="10">
         <f t="shared" si="2"/>
-        <v>-533969.08242578991</v>
+        <v>-74866.44940925017</v>
       </c>
       <c r="G58" s="12">
         <f t="shared" si="3"/>
-        <v>0.87343261342342104</v>
+        <v>0.9831050762515825</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
+      <c r="B59" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="20">
-        <v>4372394</v>
+        <v>4124529</v>
       </c>
       <c r="E59" s="13">
-        <v>4146280.9971132199</v>
+        <v>4539722.3840529602</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" si="2"/>
-        <v>226113.00288678007</v>
+        <v>-415193.3840529602</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="3"/>
-        <v>1.0545339312613418</v>
+        <v>0.90854212021610781</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C60" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="20">
-        <v>4356432</v>
+        <v>4301944</v>
       </c>
       <c r="E60" s="13">
-        <v>4431298.4494092502</v>
+        <v>4610574.6114600301</v>
       </c>
       <c r="F60" s="10">
         <f t="shared" si="2"/>
-        <v>-74866.44940925017</v>
+        <v>-308630.61146003008</v>
       </c>
       <c r="G60" s="12">
         <f t="shared" si="3"/>
-        <v>0.9831050762515825</v>
+        <v>0.93306027177330597</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>2</v>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D61" s="20">
-        <v>4124529</v>
+        <v>4153443</v>
       </c>
       <c r="E61" s="13">
-        <v>4539722.3840529602</v>
+        <v>4043513.0024532601</v>
       </c>
       <c r="F61" s="10">
         <f t="shared" si="2"/>
-        <v>-415193.3840529602</v>
+        <v>109929.99754673988</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="3"/>
-        <v>0.90854212021610781</v>
+        <v>1.0271867550518679</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>3</v>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="20">
-        <v>4301944</v>
+        <v>3834213</v>
       </c>
       <c r="E62" s="13">
-        <v>4610574.6114600301</v>
+        <v>3917600.3635215699</v>
       </c>
       <c r="F62" s="10">
         <f t="shared" si="2"/>
-        <v>-308630.61146003008</v>
+        <v>-83387.363521569874</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="3"/>
-        <v>0.93306027177330597</v>
+        <v>0.97871468353484325</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2095,49 +2149,49 @@
         <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" s="20">
-        <v>4153443</v>
+        <v>4157610</v>
       </c>
       <c r="E63" s="13">
-        <v>4043513.0024532601</v>
+        <v>4344785.0937136002</v>
       </c>
       <c r="F63" s="10">
         <f t="shared" si="2"/>
-        <v>109929.99754673988</v>
+        <v>-187175.09371360019</v>
       </c>
       <c r="G63" s="12">
         <f t="shared" si="3"/>
-        <v>1.0271867550518679</v>
+        <v>0.9569195967864047</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="1">
-        <v>29</v>
+      <c r="A64" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="8">
+        <v>31</v>
       </c>
       <c r="D64" s="20">
-        <v>3834213</v>
-      </c>
-      <c r="E64" s="13">
-        <v>3917600.3635215699</v>
-      </c>
-      <c r="F64" s="10">
-        <f t="shared" si="2"/>
-        <v>-83387.363521569874</v>
-      </c>
-      <c r="G64" s="12">
-        <f t="shared" si="3"/>
-        <v>0.97871468353484325</v>
+        <v>4709102</v>
+      </c>
+      <c r="E64" s="15">
+        <v>5655981.33514114</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="2"/>
+        <v>-946879.33514114004</v>
+      </c>
+      <c r="G64" s="17">
+        <f t="shared" si="3"/>
+        <v>0.83258796678516422</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2145,78 +2199,28 @@
         <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <v>30</v>
-      </c>
-      <c r="D65" s="20">
-        <v>4157610</v>
-      </c>
-      <c r="E65" s="13">
-        <v>4344785.0937136002</v>
+        <v>17</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10">
+        <f>SUM(D34:D64)</f>
+        <v>135301666</v>
+      </c>
+      <c r="E65" s="11">
+        <f>SUM(E34:E64)</f>
+        <v>148926190.91545802</v>
       </c>
       <c r="F65" s="10">
-        <f t="shared" si="2"/>
-        <v>-187175.09371360019</v>
+        <f>SUM(F34:F64)</f>
+        <v>-13624524.91545799</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" si="3"/>
-        <v>0.9569195967864047</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="8">
-        <v>31</v>
-      </c>
-      <c r="D66" s="20">
-        <v>4709102</v>
-      </c>
-      <c r="E66" s="15">
-        <v>5655981.33514114</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" si="2"/>
-        <v>-946879.33514114004</v>
-      </c>
-      <c r="G66" s="17">
-        <f t="shared" si="3"/>
-        <v>0.83258796678516422</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10">
-        <f>SUM(D36:D66)</f>
-        <v>135301666</v>
-      </c>
-      <c r="E67" s="11">
-        <f>SUM(E36:E66)</f>
-        <v>148926190.91545802</v>
-      </c>
-      <c r="F67" s="10">
-        <f>SUM(F36:F66)</f>
-        <v>-13624524.91545799</v>
-      </c>
-      <c r="G67" s="12">
-        <f>D67/E67</f>
+        <f>D65/E65</f>
         <v>0.9085149171431347</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G67" xr:uid="{B54780CC-FB1F-413B-BC98-E38965DDA357}"/>
+  <autoFilter ref="A1:G65" xr:uid="{B54780CC-FB1F-413B-BC98-E38965DDA357}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resultado1.xlsx
+++ b/resultado1.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27d7900c6d9acc61/Documentos/AAAAA-YUSTIN/Multipagina-excell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\OneDrive\Documentos\AAAAA-YUSTIN\TABLERO-19-FEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7CC65B7A-A9B3-49CB-89F7-FC12A0FF83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8256E2-1402-42D4-BE8D-09EAAED0A1E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59FADC2-C44B-4C5C-BFFC-FD80E77FB3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F18841FD-6696-4D92-A696-D6B631648D21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDBDF23C-A85D-4EAD-9970-13337AD3E9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>FECHA</t>
   </si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>VIERNES</t>
+  </si>
+  <si>
+    <t>TOTAL MES 6425-KABAH</t>
+  </si>
+  <si>
+    <t>TOTAL MES CLUB-ESPEJO</t>
   </si>
 </sst>
 </file>
@@ -115,20 +118,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -137,27 +161,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,19 +525,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50045584-7EC5-4F12-A8C3-F8FD0D4A49C0}">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715A372-F778-42A9-9A20-1DA4576EE21D}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -543,20 +573,20 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
         <v>2548344</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>1916676</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5">
         <v>1.33</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>2605</v>
       </c>
     </row>
@@ -567,22 +597,22 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>5028898</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>5588107</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>-2.9</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>4233</v>
       </c>
     </row>
@@ -590,23 +620,23 @@
       <c r="A4" s="2">
         <v>45690</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
         <v>2747810</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>1681122</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5">
         <v>1.63</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>2727</v>
       </c>
     </row>
@@ -614,25 +644,25 @@
       <c r="A5" s="2">
         <v>45690</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
         <v>4679387</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>4860114</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>3.2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>3674</v>
       </c>
     </row>
@@ -640,23 +670,23 @@
       <c r="A6" s="2">
         <v>45691</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
         <v>2784530</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1818244</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4">
+      <c r="F6" s="3"/>
+      <c r="G6" s="5">
         <v>1.51</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>2481</v>
       </c>
     </row>
@@ -664,25 +694,25 @@
       <c r="A7" s="2">
         <v>45691</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>5378939</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>5293079</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>3917</v>
       </c>
     </row>
@@ -690,23 +720,23 @@
       <c r="A8" s="2">
         <v>45692</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
         <v>1655769</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1415060</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6">
+      <c r="F8" s="3"/>
+      <c r="G8" s="7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>1708</v>
       </c>
     </row>
@@ -714,25 +744,25 @@
       <c r="A9" s="2">
         <v>45692</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
         <v>4582639</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>4124107</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0.3</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>3577</v>
       </c>
     </row>
@@ -740,23 +770,23 @@
       <c r="A10" s="2">
         <v>45693</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
         <v>1739420</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>1475711</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="6">
+      <c r="F10" s="3"/>
+      <c r="G10" s="7">
         <v>1.78</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>1857</v>
       </c>
     </row>
@@ -764,25 +794,25 @@
       <c r="A11" s="2">
         <v>45693</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
         <v>4153185</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>4328524</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>-12.2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>0.95099999999999996</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <v>3405</v>
       </c>
     </row>
@@ -790,23 +820,23 @@
       <c r="A12" s="2">
         <v>45694</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
         <v>1662818</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1539626</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6">
+      <c r="F12" s="3"/>
+      <c r="G12" s="7">
         <v>1.08</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>1797</v>
       </c>
     </row>
@@ -814,25 +844,25 @@
       <c r="A13" s="2">
         <v>45694</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
         <v>4116977</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>4531974</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>-14.3</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>0.87</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>3175</v>
       </c>
     </row>
@@ -840,21 +870,23 @@
       <c r="A14" s="2">
         <v>45695</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
         <v>1525136</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>1430243</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+      <c r="F14" s="3"/>
+      <c r="G14" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="H14" s="3">
         <v>1761</v>
       </c>
     </row>
@@ -862,25 +894,25 @@
       <c r="A15" s="2">
         <v>45695</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
         <v>4349725</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>4166475</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>-3.2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>1.03</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>3473</v>
       </c>
     </row>
@@ -888,21 +920,23 @@
       <c r="A16" s="2">
         <v>45696</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
         <v>2020704</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>1542353</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="F16" s="3"/>
+      <c r="G16" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H16" s="3">
         <v>2210</v>
       </c>
     </row>
@@ -910,25 +944,25 @@
       <c r="A17" s="2">
         <v>45696</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4">
         <v>4185978</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>4467174</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>-16</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>0.92</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>3652</v>
       </c>
     </row>
@@ -936,21 +970,23 @@
       <c r="A18" s="2">
         <v>45697</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
         <v>2477391</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>1551457</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+      <c r="F18" s="3"/>
+      <c r="G18" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="H18" s="3">
         <v>2687</v>
       </c>
     </row>
@@ -958,25 +994,25 @@
       <c r="A19" s="2">
         <v>45697</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
         <v>4015934</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>4476227</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>-16.899999999999999</v>
       </c>
       <c r="G19" s="7">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <v>3566</v>
       </c>
     </row>
@@ -984,21 +1020,23 @@
       <c r="A20" s="2">
         <v>45698</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
         <v>1676432</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>1673149</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
+      <c r="F20" s="3"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
         <v>1699</v>
       </c>
     </row>
@@ -1006,25 +1044,25 @@
       <c r="A21" s="2">
         <v>45698</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
         <v>4421840</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>4711282</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>-15.8</v>
       </c>
       <c r="G21" s="7">
         <v>0.92900000000000005</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>3386</v>
       </c>
     </row>
@@ -1032,21 +1070,23 @@
       <c r="A22" s="2">
         <v>45699</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
         <v>1634914</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>1849324</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
+      <c r="F22" s="3"/>
+      <c r="G22" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H22" s="3">
         <v>1711</v>
       </c>
     </row>
@@ -1054,25 +1094,25 @@
       <c r="A23" s="2">
         <v>45699</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4">
         <v>4497220</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>5313994</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>-23.1</v>
       </c>
       <c r="G23" s="7">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>3497</v>
       </c>
     </row>
@@ -1080,21 +1120,23 @@
       <c r="A24" s="2">
         <v>45700</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
         <v>1800788</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>1603642</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
+      <c r="F24" s="3"/>
+      <c r="G24" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="H24" s="3">
         <v>1860</v>
       </c>
     </row>
@@ -1102,25 +1144,25 @@
       <c r="A25" s="2">
         <v>45700</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
         <v>4323343</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>4590044</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>0.93</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <v>3625</v>
       </c>
     </row>
@@ -1128,21 +1170,23 @@
       <c r="A26" s="2">
         <v>45701</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
         <v>1925127</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>1560963</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
+      <c r="F26" s="3"/>
+      <c r="G26" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="H26" s="3">
         <v>2213</v>
       </c>
     </row>
@@ -1150,25 +1194,25 @@
       <c r="A27" s="2">
         <v>45701</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4">
         <v>4994600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>4397391</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>2.5</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <v>4064</v>
       </c>
     </row>
@@ -1176,21 +1220,23 @@
       <c r="A28" s="2">
         <v>45702</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4">
         <v>1960917</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>1841375</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="F28" s="3"/>
+      <c r="G28" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="H28" s="3">
         <v>2142</v>
       </c>
     </row>
@@ -1198,25 +1244,25 @@
       <c r="A29" s="2">
         <v>45702</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4">
         <v>4379535</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>5409962</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>-18.100000000000001</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>0.79900000000000004</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>3747</v>
       </c>
     </row>
@@ -1224,21 +1270,23 @@
       <c r="A30" s="2">
         <v>45703</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
         <v>2283569</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>1939525</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
+      <c r="F30" s="3"/>
+      <c r="G30" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="H30" s="3">
         <v>2510</v>
       </c>
     </row>
@@ -1246,25 +1294,25 @@
       <c r="A31" s="2">
         <v>45703</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
         <v>4998115</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>5659506</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>-10.9</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>0.874</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>4186</v>
       </c>
     </row>
@@ -1272,23 +1320,23 @@
       <c r="A32" s="2">
         <v>45704</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
         <v>3080690</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>1792258</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="6">
+      <c r="F32" s="3"/>
+      <c r="G32" s="7">
         <v>1.71</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <v>2995</v>
       </c>
     </row>
@@ -1296,25 +1344,25 @@
       <c r="A33" s="2">
         <v>45704</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4">
         <v>4721184</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>5175988</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>-11</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <v>3824</v>
       </c>
     </row>
@@ -1322,23 +1370,23 @@
       <c r="A34" s="2">
         <v>45705</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
         <v>2207495</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>1946735</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="6">
+      <c r="F34" s="3"/>
+      <c r="G34" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <v>1934</v>
       </c>
     </row>
@@ -1346,30 +1394,135 @@
       <c r="A35" s="2">
         <v>45705</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
         <v>4998572</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>5714092</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>-8.9</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>0.86</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <v>3445</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1875964</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1555768</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4420076</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4563811</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-9.9</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="9">
+        <f>D2+D4+D6+D8+D10+D12+D14+D16+D18+D20+D22+D24+D26+D28+D30+D30+D32+D34+D36</f>
+        <v>39891387</v>
+      </c>
+      <c r="E38" s="9">
+        <f>E2+E4+E6+E8+E10+E12+E14+E16+E18+E20+E22+E24+E26+E28+E30+E30+E32+E34+E36</f>
+        <v>32072756</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38" si="0">H2+H4+H6+H8+H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30+H30+H32+H34+H36</f>
+        <v>41296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9">
+        <f>D3+D5+D7+D9+D11+D13+D15+D17+D19+D21+D23+D25+D27+D29+D31+D33+D35+D37</f>
+        <v>82246147</v>
+      </c>
+      <c r="E39" s="9">
+        <f>E3+E5+E7+E9+E11+E13+E15+E17+E19+E21+E23+E25+E27+E29+E31+E33+E35+E37</f>
+        <v>87371851</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-9</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39" si="1">H3+H5+H7+H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29+H31+H33+H35+H37</f>
+        <v>65975</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{50045584-7EC5-4F12-A8C3-F8FD0D4A49C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resultado1.xlsx
+++ b/resultado1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\INTENTO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C02FD2-96D7-4B92-AE1D-12880837F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FF19C-99B5-4627-987F-E430500B8A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,10 +490,10 @@
     <t>TOTAL-ESPEJO</t>
   </si>
   <si>
-    <t>SUMA ENTRE CLUBES</t>
+    <t xml:space="preserve">SUMA </t>
   </si>
   <si>
-    <t>DIFERENCIA ENTRE CLUBES</t>
+    <t xml:space="preserve">DIFERENCIA </t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -695,10 +695,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,16 +713,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -734,6 +721,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1060,74 +1051,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2554,74 +2545,74 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -4868,74 +4859,74 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
     </row>
     <row r="70" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -5800,74 +5791,74 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
     </row>
     <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
     </row>
     <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
@@ -7294,74 +7285,74 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="30"/>
-      <c r="N110" s="30"/>
-      <c r="O110" s="30"/>
-      <c r="P110" s="30"/>
-      <c r="Q110" s="30"/>
-      <c r="R110" s="30"/>
-      <c r="S110" s="30"/>
-      <c r="T110" s="30"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="39"/>
+      <c r="M110" s="39"/>
+      <c r="N110" s="39"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39"/>
+      <c r="R110" s="39"/>
+      <c r="S110" s="39"/>
+      <c r="T110" s="39"/>
     </row>
     <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="30"/>
-      <c r="K111" s="30"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="30"/>
-      <c r="N111" s="30"/>
-      <c r="O111" s="30"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="30"/>
-      <c r="R111" s="30"/>
-      <c r="S111" s="30"/>
-      <c r="T111" s="30"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+      <c r="T111" s="39"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="30"/>
-      <c r="N112" s="30"/>
-      <c r="O112" s="30"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="30"/>
-      <c r="R112" s="30"/>
-      <c r="S112" s="30"/>
-      <c r="T112" s="30"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39"/>
+      <c r="M112" s="39"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="39"/>
     </row>
     <row r="113" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
@@ -9646,74 +9637,74 @@
       </c>
     </row>
     <row r="151" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="30"/>
-      <c r="J151" s="30"/>
-      <c r="K151" s="30"/>
-      <c r="L151" s="30"/>
-      <c r="M151" s="30"/>
-      <c r="N151" s="30"/>
-      <c r="O151" s="30"/>
-      <c r="P151" s="30"/>
-      <c r="Q151" s="30"/>
-      <c r="R151" s="30"/>
-      <c r="S151" s="30"/>
-      <c r="T151" s="30"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="39"/>
+      <c r="M151" s="39"/>
+      <c r="N151" s="39"/>
+      <c r="O151" s="39"/>
+      <c r="P151" s="39"/>
+      <c r="Q151" s="39"/>
+      <c r="R151" s="39"/>
+      <c r="S151" s="39"/>
+      <c r="T151" s="39"/>
     </row>
     <row r="152" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
-      <c r="J152" s="30"/>
-      <c r="K152" s="30"/>
-      <c r="L152" s="30"/>
-      <c r="M152" s="30"/>
-      <c r="N152" s="30"/>
-      <c r="O152" s="30"/>
-      <c r="P152" s="30"/>
-      <c r="Q152" s="30"/>
-      <c r="R152" s="30"/>
-      <c r="S152" s="30"/>
-      <c r="T152" s="30"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="39"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="39"/>
+      <c r="M152" s="39"/>
+      <c r="N152" s="39"/>
+      <c r="O152" s="39"/>
+      <c r="P152" s="39"/>
+      <c r="Q152" s="39"/>
+      <c r="R152" s="39"/>
+      <c r="S152" s="39"/>
+      <c r="T152" s="39"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="30"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="30"/>
-      <c r="J153" s="30"/>
-      <c r="K153" s="30"/>
-      <c r="L153" s="30"/>
-      <c r="M153" s="30"/>
-      <c r="N153" s="30"/>
-      <c r="O153" s="30"/>
-      <c r="P153" s="30"/>
-      <c r="Q153" s="30"/>
-      <c r="R153" s="30"/>
-      <c r="S153" s="30"/>
-      <c r="T153" s="30"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="39"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="39"/>
+      <c r="M153" s="39"/>
+      <c r="N153" s="39"/>
+      <c r="O153" s="39"/>
+      <c r="P153" s="39"/>
+      <c r="Q153" s="39"/>
+      <c r="R153" s="39"/>
+      <c r="S153" s="39"/>
+      <c r="T153" s="39"/>
     </row>
     <row r="154" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -10668,74 +10659,74 @@
       </c>
     </row>
     <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
-      <c r="I170" s="30"/>
-      <c r="J170" s="30"/>
-      <c r="K170" s="30"/>
-      <c r="L170" s="30"/>
-      <c r="M170" s="30"/>
-      <c r="N170" s="30"/>
-      <c r="O170" s="30"/>
-      <c r="P170" s="30"/>
-      <c r="Q170" s="30"/>
-      <c r="R170" s="30"/>
-      <c r="S170" s="30"/>
-      <c r="T170" s="30"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="39"/>
+      <c r="I170" s="39"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="39"/>
+      <c r="M170" s="39"/>
+      <c r="N170" s="39"/>
+      <c r="O170" s="39"/>
+      <c r="P170" s="39"/>
+      <c r="Q170" s="39"/>
+      <c r="R170" s="39"/>
+      <c r="S170" s="39"/>
+      <c r="T170" s="39"/>
     </row>
     <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A171" s="29" t="s">
+      <c r="A171" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="30"/>
-      <c r="J171" s="30"/>
-      <c r="K171" s="30"/>
-      <c r="L171" s="30"/>
-      <c r="M171" s="30"/>
-      <c r="N171" s="30"/>
-      <c r="O171" s="30"/>
-      <c r="P171" s="30"/>
-      <c r="Q171" s="30"/>
-      <c r="R171" s="30"/>
-      <c r="S171" s="30"/>
-      <c r="T171" s="30"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="39"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="39"/>
+      <c r="M171" s="39"/>
+      <c r="N171" s="39"/>
+      <c r="O171" s="39"/>
+      <c r="P171" s="39"/>
+      <c r="Q171" s="39"/>
+      <c r="R171" s="39"/>
+      <c r="S171" s="39"/>
+      <c r="T171" s="39"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
-      <c r="I172" s="30"/>
-      <c r="J172" s="30"/>
-      <c r="K172" s="30"/>
-      <c r="L172" s="30"/>
-      <c r="M172" s="30"/>
-      <c r="N172" s="30"/>
-      <c r="O172" s="30"/>
-      <c r="P172" s="30"/>
-      <c r="Q172" s="30"/>
-      <c r="R172" s="30"/>
-      <c r="S172" s="30"/>
-      <c r="T172" s="30"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="39"/>
+      <c r="M172" s="39"/>
+      <c r="N172" s="39"/>
+      <c r="O172" s="39"/>
+      <c r="P172" s="39"/>
+      <c r="Q172" s="39"/>
+      <c r="R172" s="39"/>
+      <c r="S172" s="39"/>
+      <c r="T172" s="39"/>
     </row>
     <row r="173" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -12162,74 +12153,74 @@
       </c>
     </row>
     <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A196" s="29" t="s">
+      <c r="A196" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B196" s="30"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="30"/>
-      <c r="F196" s="30"/>
-      <c r="G196" s="30"/>
-      <c r="H196" s="30"/>
-      <c r="I196" s="30"/>
-      <c r="J196" s="30"/>
-      <c r="K196" s="30"/>
-      <c r="L196" s="30"/>
-      <c r="M196" s="30"/>
-      <c r="N196" s="30"/>
-      <c r="O196" s="30"/>
-      <c r="P196" s="30"/>
-      <c r="Q196" s="30"/>
-      <c r="R196" s="30"/>
-      <c r="S196" s="30"/>
-      <c r="T196" s="30"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="39"/>
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="39"/>
+      <c r="G196" s="39"/>
+      <c r="H196" s="39"/>
+      <c r="I196" s="39"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="39"/>
+      <c r="L196" s="39"/>
+      <c r="M196" s="39"/>
+      <c r="N196" s="39"/>
+      <c r="O196" s="39"/>
+      <c r="P196" s="39"/>
+      <c r="Q196" s="39"/>
+      <c r="R196" s="39"/>
+      <c r="S196" s="39"/>
+      <c r="T196" s="39"/>
     </row>
     <row r="197" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A197" s="29" t="s">
+      <c r="A197" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
-      <c r="F197" s="30"/>
-      <c r="G197" s="30"/>
-      <c r="H197" s="30"/>
-      <c r="I197" s="30"/>
-      <c r="J197" s="30"/>
-      <c r="K197" s="30"/>
-      <c r="L197" s="30"/>
-      <c r="M197" s="30"/>
-      <c r="N197" s="30"/>
-      <c r="O197" s="30"/>
-      <c r="P197" s="30"/>
-      <c r="Q197" s="30"/>
-      <c r="R197" s="30"/>
-      <c r="S197" s="30"/>
-      <c r="T197" s="30"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="39"/>
+      <c r="J197" s="39"/>
+      <c r="K197" s="39"/>
+      <c r="L197" s="39"/>
+      <c r="M197" s="39"/>
+      <c r="N197" s="39"/>
+      <c r="O197" s="39"/>
+      <c r="P197" s="39"/>
+      <c r="Q197" s="39"/>
+      <c r="R197" s="39"/>
+      <c r="S197" s="39"/>
+      <c r="T197" s="39"/>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A198" s="30"/>
-      <c r="B198" s="30"/>
-      <c r="C198" s="30"/>
-      <c r="D198" s="30"/>
-      <c r="E198" s="30"/>
-      <c r="F198" s="30"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="30"/>
-      <c r="I198" s="30"/>
-      <c r="J198" s="30"/>
-      <c r="K198" s="30"/>
-      <c r="L198" s="30"/>
-      <c r="M198" s="30"/>
-      <c r="N198" s="30"/>
-      <c r="O198" s="30"/>
-      <c r="P198" s="30"/>
-      <c r="Q198" s="30"/>
-      <c r="R198" s="30"/>
-      <c r="S198" s="30"/>
-      <c r="T198" s="30"/>
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="39"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
+      <c r="G198" s="39"/>
+      <c r="H198" s="39"/>
+      <c r="I198" s="39"/>
+      <c r="J198" s="39"/>
+      <c r="K198" s="39"/>
+      <c r="L198" s="39"/>
+      <c r="M198" s="39"/>
+      <c r="N198" s="39"/>
+      <c r="O198" s="39"/>
+      <c r="P198" s="39"/>
+      <c r="Q198" s="39"/>
+      <c r="R198" s="39"/>
+      <c r="S198" s="39"/>
+      <c r="T198" s="39"/>
     </row>
     <row r="199" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
@@ -14376,74 +14367,74 @@
       </c>
     </row>
     <row r="234" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A234" s="29" t="s">
+      <c r="A234" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B234" s="30"/>
-      <c r="C234" s="30"/>
-      <c r="D234" s="30"/>
-      <c r="E234" s="30"/>
-      <c r="F234" s="30"/>
-      <c r="G234" s="30"/>
-      <c r="H234" s="30"/>
-      <c r="I234" s="30"/>
-      <c r="J234" s="30"/>
-      <c r="K234" s="30"/>
-      <c r="L234" s="30"/>
-      <c r="M234" s="30"/>
-      <c r="N234" s="30"/>
-      <c r="O234" s="30"/>
-      <c r="P234" s="30"/>
-      <c r="Q234" s="30"/>
-      <c r="R234" s="30"/>
-      <c r="S234" s="30"/>
-      <c r="T234" s="30"/>
+      <c r="B234" s="39"/>
+      <c r="C234" s="39"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="39"/>
+      <c r="F234" s="39"/>
+      <c r="G234" s="39"/>
+      <c r="H234" s="39"/>
+      <c r="I234" s="39"/>
+      <c r="J234" s="39"/>
+      <c r="K234" s="39"/>
+      <c r="L234" s="39"/>
+      <c r="M234" s="39"/>
+      <c r="N234" s="39"/>
+      <c r="O234" s="39"/>
+      <c r="P234" s="39"/>
+      <c r="Q234" s="39"/>
+      <c r="R234" s="39"/>
+      <c r="S234" s="39"/>
+      <c r="T234" s="39"/>
     </row>
     <row r="235" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A235" s="29" t="s">
+      <c r="A235" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B235" s="30"/>
-      <c r="C235" s="30"/>
-      <c r="D235" s="30"/>
-      <c r="E235" s="30"/>
-      <c r="F235" s="30"/>
-      <c r="G235" s="30"/>
-      <c r="H235" s="30"/>
-      <c r="I235" s="30"/>
-      <c r="J235" s="30"/>
-      <c r="K235" s="30"/>
-      <c r="L235" s="30"/>
-      <c r="M235" s="30"/>
-      <c r="N235" s="30"/>
-      <c r="O235" s="30"/>
-      <c r="P235" s="30"/>
-      <c r="Q235" s="30"/>
-      <c r="R235" s="30"/>
-      <c r="S235" s="30"/>
-      <c r="T235" s="30"/>
+      <c r="B235" s="39"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="39"/>
+      <c r="F235" s="39"/>
+      <c r="G235" s="39"/>
+      <c r="H235" s="39"/>
+      <c r="I235" s="39"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="39"/>
+      <c r="L235" s="39"/>
+      <c r="M235" s="39"/>
+      <c r="N235" s="39"/>
+      <c r="O235" s="39"/>
+      <c r="P235" s="39"/>
+      <c r="Q235" s="39"/>
+      <c r="R235" s="39"/>
+      <c r="S235" s="39"/>
+      <c r="T235" s="39"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="30"/>
-      <c r="B236" s="30"/>
-      <c r="C236" s="30"/>
-      <c r="D236" s="30"/>
-      <c r="E236" s="30"/>
-      <c r="F236" s="30"/>
-      <c r="G236" s="30"/>
-      <c r="H236" s="30"/>
-      <c r="I236" s="30"/>
-      <c r="J236" s="30"/>
-      <c r="K236" s="30"/>
-      <c r="L236" s="30"/>
-      <c r="M236" s="30"/>
-      <c r="N236" s="30"/>
-      <c r="O236" s="30"/>
-      <c r="P236" s="30"/>
-      <c r="Q236" s="30"/>
-      <c r="R236" s="30"/>
-      <c r="S236" s="30"/>
-      <c r="T236" s="30"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
+      <c r="C236" s="39"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="39"/>
+      <c r="F236" s="39"/>
+      <c r="G236" s="39"/>
+      <c r="H236" s="39"/>
+      <c r="I236" s="39"/>
+      <c r="J236" s="39"/>
+      <c r="K236" s="39"/>
+      <c r="L236" s="39"/>
+      <c r="M236" s="39"/>
+      <c r="N236" s="39"/>
+      <c r="O236" s="39"/>
+      <c r="P236" s="39"/>
+      <c r="Q236" s="39"/>
+      <c r="R236" s="39"/>
+      <c r="S236" s="39"/>
+      <c r="T236" s="39"/>
     </row>
     <row r="237" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
@@ -15392,74 +15383,74 @@
       </c>
     </row>
     <row r="253" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A253" s="29" t="s">
+      <c r="A253" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B253" s="30"/>
-      <c r="C253" s="30"/>
-      <c r="D253" s="30"/>
-      <c r="E253" s="30"/>
-      <c r="F253" s="30"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="30"/>
-      <c r="I253" s="30"/>
-      <c r="J253" s="30"/>
-      <c r="K253" s="30"/>
-      <c r="L253" s="30"/>
-      <c r="M253" s="30"/>
-      <c r="N253" s="30"/>
-      <c r="O253" s="30"/>
-      <c r="P253" s="30"/>
-      <c r="Q253" s="30"/>
-      <c r="R253" s="30"/>
-      <c r="S253" s="30"/>
-      <c r="T253" s="30"/>
+      <c r="B253" s="39"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="39"/>
+      <c r="F253" s="39"/>
+      <c r="G253" s="39"/>
+      <c r="H253" s="39"/>
+      <c r="I253" s="39"/>
+      <c r="J253" s="39"/>
+      <c r="K253" s="39"/>
+      <c r="L253" s="39"/>
+      <c r="M253" s="39"/>
+      <c r="N253" s="39"/>
+      <c r="O253" s="39"/>
+      <c r="P253" s="39"/>
+      <c r="Q253" s="39"/>
+      <c r="R253" s="39"/>
+      <c r="S253" s="39"/>
+      <c r="T253" s="39"/>
     </row>
     <row r="254" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A254" s="29" t="s">
+      <c r="A254" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B254" s="30"/>
-      <c r="C254" s="30"/>
-      <c r="D254" s="30"/>
-      <c r="E254" s="30"/>
-      <c r="F254" s="30"/>
-      <c r="G254" s="30"/>
-      <c r="H254" s="30"/>
-      <c r="I254" s="30"/>
-      <c r="J254" s="30"/>
-      <c r="K254" s="30"/>
-      <c r="L254" s="30"/>
-      <c r="M254" s="30"/>
-      <c r="N254" s="30"/>
-      <c r="O254" s="30"/>
-      <c r="P254" s="30"/>
-      <c r="Q254" s="30"/>
-      <c r="R254" s="30"/>
-      <c r="S254" s="30"/>
-      <c r="T254" s="30"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="39"/>
+      <c r="F254" s="39"/>
+      <c r="G254" s="39"/>
+      <c r="H254" s="39"/>
+      <c r="I254" s="39"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="39"/>
+      <c r="L254" s="39"/>
+      <c r="M254" s="39"/>
+      <c r="N254" s="39"/>
+      <c r="O254" s="39"/>
+      <c r="P254" s="39"/>
+      <c r="Q254" s="39"/>
+      <c r="R254" s="39"/>
+      <c r="S254" s="39"/>
+      <c r="T254" s="39"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="30"/>
-      <c r="B255" s="30"/>
-      <c r="C255" s="30"/>
-      <c r="D255" s="30"/>
-      <c r="E255" s="30"/>
-      <c r="F255" s="30"/>
-      <c r="G255" s="30"/>
-      <c r="H255" s="30"/>
-      <c r="I255" s="30"/>
-      <c r="J255" s="30"/>
-      <c r="K255" s="30"/>
-      <c r="L255" s="30"/>
-      <c r="M255" s="30"/>
-      <c r="N255" s="30"/>
-      <c r="O255" s="30"/>
-      <c r="P255" s="30"/>
-      <c r="Q255" s="30"/>
-      <c r="R255" s="30"/>
-      <c r="S255" s="30"/>
-      <c r="T255" s="30"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
+      <c r="C255" s="39"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="39"/>
+      <c r="F255" s="39"/>
+      <c r="G255" s="39"/>
+      <c r="H255" s="39"/>
+      <c r="I255" s="39"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="39"/>
+      <c r="L255" s="39"/>
+      <c r="M255" s="39"/>
+      <c r="N255" s="39"/>
+      <c r="O255" s="39"/>
+      <c r="P255" s="39"/>
+      <c r="Q255" s="39"/>
+      <c r="R255" s="39"/>
+      <c r="S255" s="39"/>
+      <c r="T255" s="39"/>
     </row>
     <row r="256" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
@@ -16826,74 +16817,74 @@
       </c>
     </row>
     <row r="278" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A278" s="29" t="s">
+      <c r="A278" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B278" s="30"/>
-      <c r="C278" s="30"/>
-      <c r="D278" s="30"/>
-      <c r="E278" s="30"/>
-      <c r="F278" s="30"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="30"/>
-      <c r="I278" s="30"/>
-      <c r="J278" s="30"/>
-      <c r="K278" s="30"/>
-      <c r="L278" s="30"/>
-      <c r="M278" s="30"/>
-      <c r="N278" s="30"/>
-      <c r="O278" s="30"/>
-      <c r="P278" s="30"/>
-      <c r="Q278" s="30"/>
-      <c r="R278" s="30"/>
-      <c r="S278" s="30"/>
-      <c r="T278" s="30"/>
+      <c r="B278" s="39"/>
+      <c r="C278" s="39"/>
+      <c r="D278" s="39"/>
+      <c r="E278" s="39"/>
+      <c r="F278" s="39"/>
+      <c r="G278" s="39"/>
+      <c r="H278" s="39"/>
+      <c r="I278" s="39"/>
+      <c r="J278" s="39"/>
+      <c r="K278" s="39"/>
+      <c r="L278" s="39"/>
+      <c r="M278" s="39"/>
+      <c r="N278" s="39"/>
+      <c r="O278" s="39"/>
+      <c r="P278" s="39"/>
+      <c r="Q278" s="39"/>
+      <c r="R278" s="39"/>
+      <c r="S278" s="39"/>
+      <c r="T278" s="39"/>
     </row>
     <row r="279" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A279" s="29" t="s">
+      <c r="A279" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B279" s="30"/>
-      <c r="C279" s="30"/>
-      <c r="D279" s="30"/>
-      <c r="E279" s="30"/>
-      <c r="F279" s="30"/>
-      <c r="G279" s="30"/>
-      <c r="H279" s="30"/>
-      <c r="I279" s="30"/>
-      <c r="J279" s="30"/>
-      <c r="K279" s="30"/>
-      <c r="L279" s="30"/>
-      <c r="M279" s="30"/>
-      <c r="N279" s="30"/>
-      <c r="O279" s="30"/>
-      <c r="P279" s="30"/>
-      <c r="Q279" s="30"/>
-      <c r="R279" s="30"/>
-      <c r="S279" s="30"/>
-      <c r="T279" s="30"/>
+      <c r="B279" s="39"/>
+      <c r="C279" s="39"/>
+      <c r="D279" s="39"/>
+      <c r="E279" s="39"/>
+      <c r="F279" s="39"/>
+      <c r="G279" s="39"/>
+      <c r="H279" s="39"/>
+      <c r="I279" s="39"/>
+      <c r="J279" s="39"/>
+      <c r="K279" s="39"/>
+      <c r="L279" s="39"/>
+      <c r="M279" s="39"/>
+      <c r="N279" s="39"/>
+      <c r="O279" s="39"/>
+      <c r="P279" s="39"/>
+      <c r="Q279" s="39"/>
+      <c r="R279" s="39"/>
+      <c r="S279" s="39"/>
+      <c r="T279" s="39"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A280" s="30"/>
-      <c r="B280" s="30"/>
-      <c r="C280" s="30"/>
-      <c r="D280" s="30"/>
-      <c r="E280" s="30"/>
-      <c r="F280" s="30"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="30"/>
-      <c r="I280" s="30"/>
-      <c r="J280" s="30"/>
-      <c r="K280" s="30"/>
-      <c r="L280" s="30"/>
-      <c r="M280" s="30"/>
-      <c r="N280" s="30"/>
-      <c r="O280" s="30"/>
-      <c r="P280" s="30"/>
-      <c r="Q280" s="30"/>
-      <c r="R280" s="30"/>
-      <c r="S280" s="30"/>
-      <c r="T280" s="30"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
+      <c r="C280" s="39"/>
+      <c r="D280" s="39"/>
+      <c r="E280" s="39"/>
+      <c r="F280" s="39"/>
+      <c r="G280" s="39"/>
+      <c r="H280" s="39"/>
+      <c r="I280" s="39"/>
+      <c r="J280" s="39"/>
+      <c r="K280" s="39"/>
+      <c r="L280" s="39"/>
+      <c r="M280" s="39"/>
+      <c r="N280" s="39"/>
+      <c r="O280" s="39"/>
+      <c r="P280" s="39"/>
+      <c r="Q280" s="39"/>
+      <c r="R280" s="39"/>
+      <c r="S280" s="39"/>
+      <c r="T280" s="39"/>
     </row>
     <row r="281" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
@@ -19076,74 +19067,74 @@
       </c>
     </row>
     <row r="317" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A317" s="29" t="s">
+      <c r="A317" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B317" s="30"/>
-      <c r="C317" s="30"/>
-      <c r="D317" s="30"/>
-      <c r="E317" s="30"/>
-      <c r="F317" s="30"/>
-      <c r="G317" s="30"/>
-      <c r="H317" s="30"/>
-      <c r="I317" s="30"/>
-      <c r="J317" s="30"/>
-      <c r="K317" s="30"/>
-      <c r="L317" s="30"/>
-      <c r="M317" s="30"/>
-      <c r="N317" s="30"/>
-      <c r="O317" s="30"/>
-      <c r="P317" s="30"/>
-      <c r="Q317" s="30"/>
-      <c r="R317" s="30"/>
-      <c r="S317" s="30"/>
-      <c r="T317" s="30"/>
+      <c r="B317" s="39"/>
+      <c r="C317" s="39"/>
+      <c r="D317" s="39"/>
+      <c r="E317" s="39"/>
+      <c r="F317" s="39"/>
+      <c r="G317" s="39"/>
+      <c r="H317" s="39"/>
+      <c r="I317" s="39"/>
+      <c r="J317" s="39"/>
+      <c r="K317" s="39"/>
+      <c r="L317" s="39"/>
+      <c r="M317" s="39"/>
+      <c r="N317" s="39"/>
+      <c r="O317" s="39"/>
+      <c r="P317" s="39"/>
+      <c r="Q317" s="39"/>
+      <c r="R317" s="39"/>
+      <c r="S317" s="39"/>
+      <c r="T317" s="39"/>
     </row>
     <row r="318" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A318" s="29" t="s">
+      <c r="A318" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B318" s="30"/>
-      <c r="C318" s="30"/>
-      <c r="D318" s="30"/>
-      <c r="E318" s="30"/>
-      <c r="F318" s="30"/>
-      <c r="G318" s="30"/>
-      <c r="H318" s="30"/>
-      <c r="I318" s="30"/>
-      <c r="J318" s="30"/>
-      <c r="K318" s="30"/>
-      <c r="L318" s="30"/>
-      <c r="M318" s="30"/>
-      <c r="N318" s="30"/>
-      <c r="O318" s="30"/>
-      <c r="P318" s="30"/>
-      <c r="Q318" s="30"/>
-      <c r="R318" s="30"/>
-      <c r="S318" s="30"/>
-      <c r="T318" s="30"/>
+      <c r="B318" s="39"/>
+      <c r="C318" s="39"/>
+      <c r="D318" s="39"/>
+      <c r="E318" s="39"/>
+      <c r="F318" s="39"/>
+      <c r="G318" s="39"/>
+      <c r="H318" s="39"/>
+      <c r="I318" s="39"/>
+      <c r="J318" s="39"/>
+      <c r="K318" s="39"/>
+      <c r="L318" s="39"/>
+      <c r="M318" s="39"/>
+      <c r="N318" s="39"/>
+      <c r="O318" s="39"/>
+      <c r="P318" s="39"/>
+      <c r="Q318" s="39"/>
+      <c r="R318" s="39"/>
+      <c r="S318" s="39"/>
+      <c r="T318" s="39"/>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A319" s="30"/>
-      <c r="B319" s="30"/>
-      <c r="C319" s="30"/>
-      <c r="D319" s="30"/>
-      <c r="E319" s="30"/>
-      <c r="F319" s="30"/>
-      <c r="G319" s="30"/>
-      <c r="H319" s="30"/>
-      <c r="I319" s="30"/>
-      <c r="J319" s="30"/>
-      <c r="K319" s="30"/>
-      <c r="L319" s="30"/>
-      <c r="M319" s="30"/>
-      <c r="N319" s="30"/>
-      <c r="O319" s="30"/>
-      <c r="P319" s="30"/>
-      <c r="Q319" s="30"/>
-      <c r="R319" s="30"/>
-      <c r="S319" s="30"/>
-      <c r="T319" s="30"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
+      <c r="C319" s="39"/>
+      <c r="D319" s="39"/>
+      <c r="E319" s="39"/>
+      <c r="F319" s="39"/>
+      <c r="G319" s="39"/>
+      <c r="H319" s="39"/>
+      <c r="I319" s="39"/>
+      <c r="J319" s="39"/>
+      <c r="K319" s="39"/>
+      <c r="L319" s="39"/>
+      <c r="M319" s="39"/>
+      <c r="N319" s="39"/>
+      <c r="O319" s="39"/>
+      <c r="P319" s="39"/>
+      <c r="Q319" s="39"/>
+      <c r="R319" s="39"/>
+      <c r="S319" s="39"/>
+      <c r="T319" s="39"/>
     </row>
     <row r="320" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
@@ -20088,74 +20079,74 @@
       <c r="T335" s="23"/>
     </row>
     <row r="336" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A336" s="29" t="s">
+      <c r="A336" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B336" s="30"/>
-      <c r="C336" s="30"/>
-      <c r="D336" s="30"/>
-      <c r="E336" s="30"/>
-      <c r="F336" s="30"/>
-      <c r="G336" s="30"/>
-      <c r="H336" s="30"/>
-      <c r="I336" s="30"/>
-      <c r="J336" s="30"/>
-      <c r="K336" s="30"/>
-      <c r="L336" s="30"/>
-      <c r="M336" s="30"/>
-      <c r="N336" s="30"/>
-      <c r="O336" s="30"/>
-      <c r="P336" s="30"/>
-      <c r="Q336" s="30"/>
-      <c r="R336" s="30"/>
-      <c r="S336" s="30"/>
-      <c r="T336" s="30"/>
+      <c r="B336" s="39"/>
+      <c r="C336" s="39"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="39"/>
+      <c r="F336" s="39"/>
+      <c r="G336" s="39"/>
+      <c r="H336" s="39"/>
+      <c r="I336" s="39"/>
+      <c r="J336" s="39"/>
+      <c r="K336" s="39"/>
+      <c r="L336" s="39"/>
+      <c r="M336" s="39"/>
+      <c r="N336" s="39"/>
+      <c r="O336" s="39"/>
+      <c r="P336" s="39"/>
+      <c r="Q336" s="39"/>
+      <c r="R336" s="39"/>
+      <c r="S336" s="39"/>
+      <c r="T336" s="39"/>
     </row>
     <row r="337" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A337" s="29" t="s">
+      <c r="A337" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B337" s="30"/>
-      <c r="C337" s="30"/>
-      <c r="D337" s="30"/>
-      <c r="E337" s="30"/>
-      <c r="F337" s="30"/>
-      <c r="G337" s="30"/>
-      <c r="H337" s="30"/>
-      <c r="I337" s="30"/>
-      <c r="J337" s="30"/>
-      <c r="K337" s="30"/>
-      <c r="L337" s="30"/>
-      <c r="M337" s="30"/>
-      <c r="N337" s="30"/>
-      <c r="O337" s="30"/>
-      <c r="P337" s="30"/>
-      <c r="Q337" s="30"/>
-      <c r="R337" s="30"/>
-      <c r="S337" s="30"/>
-      <c r="T337" s="30"/>
+      <c r="B337" s="39"/>
+      <c r="C337" s="39"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="39"/>
+      <c r="F337" s="39"/>
+      <c r="G337" s="39"/>
+      <c r="H337" s="39"/>
+      <c r="I337" s="39"/>
+      <c r="J337" s="39"/>
+      <c r="K337" s="39"/>
+      <c r="L337" s="39"/>
+      <c r="M337" s="39"/>
+      <c r="N337" s="39"/>
+      <c r="O337" s="39"/>
+      <c r="P337" s="39"/>
+      <c r="Q337" s="39"/>
+      <c r="R337" s="39"/>
+      <c r="S337" s="39"/>
+      <c r="T337" s="39"/>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A338" s="30"/>
-      <c r="B338" s="30"/>
-      <c r="C338" s="30"/>
-      <c r="D338" s="30"/>
-      <c r="E338" s="30"/>
-      <c r="F338" s="30"/>
-      <c r="G338" s="30"/>
-      <c r="H338" s="30"/>
-      <c r="I338" s="30"/>
-      <c r="J338" s="30"/>
-      <c r="K338" s="30"/>
-      <c r="L338" s="30"/>
-      <c r="M338" s="30"/>
-      <c r="N338" s="30"/>
-      <c r="O338" s="30"/>
-      <c r="P338" s="30"/>
-      <c r="Q338" s="30"/>
-      <c r="R338" s="30"/>
-      <c r="S338" s="30"/>
-      <c r="T338" s="30"/>
+      <c r="A338" s="39"/>
+      <c r="B338" s="39"/>
+      <c r="C338" s="39"/>
+      <c r="D338" s="39"/>
+      <c r="E338" s="39"/>
+      <c r="F338" s="39"/>
+      <c r="G338" s="39"/>
+      <c r="H338" s="39"/>
+      <c r="I338" s="39"/>
+      <c r="J338" s="39"/>
+      <c r="K338" s="39"/>
+      <c r="L338" s="39"/>
+      <c r="M338" s="39"/>
+      <c r="N338" s="39"/>
+      <c r="O338" s="39"/>
+      <c r="P338" s="39"/>
+      <c r="Q338" s="39"/>
+      <c r="R338" s="39"/>
+      <c r="S338" s="39"/>
+      <c r="T338" s="39"/>
     </row>
     <row r="339" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
@@ -21576,74 +21567,74 @@
       </c>
     </row>
     <row r="362" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A362" s="29" t="s">
+      <c r="A362" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B362" s="30"/>
-      <c r="C362" s="30"/>
-      <c r="D362" s="30"/>
-      <c r="E362" s="30"/>
-      <c r="F362" s="30"/>
-      <c r="G362" s="30"/>
-      <c r="H362" s="30"/>
-      <c r="I362" s="30"/>
-      <c r="J362" s="30"/>
-      <c r="K362" s="30"/>
-      <c r="L362" s="30"/>
-      <c r="M362" s="30"/>
-      <c r="N362" s="30"/>
-      <c r="O362" s="30"/>
-      <c r="P362" s="30"/>
-      <c r="Q362" s="30"/>
-      <c r="R362" s="30"/>
-      <c r="S362" s="30"/>
-      <c r="T362" s="30"/>
+      <c r="B362" s="39"/>
+      <c r="C362" s="39"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="39"/>
+      <c r="F362" s="39"/>
+      <c r="G362" s="39"/>
+      <c r="H362" s="39"/>
+      <c r="I362" s="39"/>
+      <c r="J362" s="39"/>
+      <c r="K362" s="39"/>
+      <c r="L362" s="39"/>
+      <c r="M362" s="39"/>
+      <c r="N362" s="39"/>
+      <c r="O362" s="39"/>
+      <c r="P362" s="39"/>
+      <c r="Q362" s="39"/>
+      <c r="R362" s="39"/>
+      <c r="S362" s="39"/>
+      <c r="T362" s="39"/>
     </row>
     <row r="363" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A363" s="29" t="s">
+      <c r="A363" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B363" s="30"/>
-      <c r="C363" s="30"/>
-      <c r="D363" s="30"/>
-      <c r="E363" s="30"/>
-      <c r="F363" s="30"/>
-      <c r="G363" s="30"/>
-      <c r="H363" s="30"/>
-      <c r="I363" s="30"/>
-      <c r="J363" s="30"/>
-      <c r="K363" s="30"/>
-      <c r="L363" s="30"/>
-      <c r="M363" s="30"/>
-      <c r="N363" s="30"/>
-      <c r="O363" s="30"/>
-      <c r="P363" s="30"/>
-      <c r="Q363" s="30"/>
-      <c r="R363" s="30"/>
-      <c r="S363" s="30"/>
-      <c r="T363" s="30"/>
+      <c r="B363" s="39"/>
+      <c r="C363" s="39"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="39"/>
+      <c r="F363" s="39"/>
+      <c r="G363" s="39"/>
+      <c r="H363" s="39"/>
+      <c r="I363" s="39"/>
+      <c r="J363" s="39"/>
+      <c r="K363" s="39"/>
+      <c r="L363" s="39"/>
+      <c r="M363" s="39"/>
+      <c r="N363" s="39"/>
+      <c r="O363" s="39"/>
+      <c r="P363" s="39"/>
+      <c r="Q363" s="39"/>
+      <c r="R363" s="39"/>
+      <c r="S363" s="39"/>
+      <c r="T363" s="39"/>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A364" s="30"/>
-      <c r="B364" s="30"/>
-      <c r="C364" s="30"/>
-      <c r="D364" s="30"/>
-      <c r="E364" s="30"/>
-      <c r="F364" s="30"/>
-      <c r="G364" s="30"/>
-      <c r="H364" s="30"/>
-      <c r="I364" s="30"/>
-      <c r="J364" s="30"/>
-      <c r="K364" s="30"/>
-      <c r="L364" s="30"/>
-      <c r="M364" s="30"/>
-      <c r="N364" s="30"/>
-      <c r="O364" s="30"/>
-      <c r="P364" s="30"/>
-      <c r="Q364" s="30"/>
-      <c r="R364" s="30"/>
-      <c r="S364" s="30"/>
-      <c r="T364" s="30"/>
+      <c r="A364" s="39"/>
+      <c r="B364" s="39"/>
+      <c r="C364" s="39"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="39"/>
+      <c r="F364" s="39"/>
+      <c r="G364" s="39"/>
+      <c r="H364" s="39"/>
+      <c r="I364" s="39"/>
+      <c r="J364" s="39"/>
+      <c r="K364" s="39"/>
+      <c r="L364" s="39"/>
+      <c r="M364" s="39"/>
+      <c r="N364" s="39"/>
+      <c r="O364" s="39"/>
+      <c r="P364" s="39"/>
+      <c r="Q364" s="39"/>
+      <c r="R364" s="39"/>
+      <c r="S364" s="39"/>
+      <c r="T364" s="39"/>
     </row>
     <row r="365" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
@@ -23834,74 +23825,74 @@
       </c>
     </row>
     <row r="401" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A401" s="29" t="s">
+      <c r="A401" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B401" s="30"/>
-      <c r="C401" s="30"/>
-      <c r="D401" s="30"/>
-      <c r="E401" s="30"/>
-      <c r="F401" s="30"/>
-      <c r="G401" s="30"/>
-      <c r="H401" s="30"/>
-      <c r="I401" s="30"/>
-      <c r="J401" s="30"/>
-      <c r="K401" s="30"/>
-      <c r="L401" s="30"/>
-      <c r="M401" s="30"/>
-      <c r="N401" s="30"/>
-      <c r="O401" s="30"/>
-      <c r="P401" s="30"/>
-      <c r="Q401" s="30"/>
-      <c r="R401" s="30"/>
-      <c r="S401" s="30"/>
-      <c r="T401" s="30"/>
+      <c r="B401" s="39"/>
+      <c r="C401" s="39"/>
+      <c r="D401" s="39"/>
+      <c r="E401" s="39"/>
+      <c r="F401" s="39"/>
+      <c r="G401" s="39"/>
+      <c r="H401" s="39"/>
+      <c r="I401" s="39"/>
+      <c r="J401" s="39"/>
+      <c r="K401" s="39"/>
+      <c r="L401" s="39"/>
+      <c r="M401" s="39"/>
+      <c r="N401" s="39"/>
+      <c r="O401" s="39"/>
+      <c r="P401" s="39"/>
+      <c r="Q401" s="39"/>
+      <c r="R401" s="39"/>
+      <c r="S401" s="39"/>
+      <c r="T401" s="39"/>
     </row>
     <row r="402" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A402" s="29" t="s">
+      <c r="A402" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="B402" s="30"/>
-      <c r="C402" s="30"/>
-      <c r="D402" s="30"/>
-      <c r="E402" s="30"/>
-      <c r="F402" s="30"/>
-      <c r="G402" s="30"/>
-      <c r="H402" s="30"/>
-      <c r="I402" s="30"/>
-      <c r="J402" s="30"/>
-      <c r="K402" s="30"/>
-      <c r="L402" s="30"/>
-      <c r="M402" s="30"/>
-      <c r="N402" s="30"/>
-      <c r="O402" s="30"/>
-      <c r="P402" s="30"/>
-      <c r="Q402" s="30"/>
-      <c r="R402" s="30"/>
-      <c r="S402" s="30"/>
-      <c r="T402" s="30"/>
+      <c r="B402" s="39"/>
+      <c r="C402" s="39"/>
+      <c r="D402" s="39"/>
+      <c r="E402" s="39"/>
+      <c r="F402" s="39"/>
+      <c r="G402" s="39"/>
+      <c r="H402" s="39"/>
+      <c r="I402" s="39"/>
+      <c r="J402" s="39"/>
+      <c r="K402" s="39"/>
+      <c r="L402" s="39"/>
+      <c r="M402" s="39"/>
+      <c r="N402" s="39"/>
+      <c r="O402" s="39"/>
+      <c r="P402" s="39"/>
+      <c r="Q402" s="39"/>
+      <c r="R402" s="39"/>
+      <c r="S402" s="39"/>
+      <c r="T402" s="39"/>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A403" s="30"/>
-      <c r="B403" s="30"/>
-      <c r="C403" s="30"/>
-      <c r="D403" s="30"/>
-      <c r="E403" s="30"/>
-      <c r="F403" s="30"/>
-      <c r="G403" s="30"/>
-      <c r="H403" s="30"/>
-      <c r="I403" s="30"/>
-      <c r="J403" s="30"/>
-      <c r="K403" s="30"/>
-      <c r="L403" s="30"/>
-      <c r="M403" s="30"/>
-      <c r="N403" s="30"/>
-      <c r="O403" s="30"/>
-      <c r="P403" s="30"/>
-      <c r="Q403" s="30"/>
-      <c r="R403" s="30"/>
-      <c r="S403" s="30"/>
-      <c r="T403" s="30"/>
+      <c r="A403" s="39"/>
+      <c r="B403" s="39"/>
+      <c r="C403" s="39"/>
+      <c r="D403" s="39"/>
+      <c r="E403" s="39"/>
+      <c r="F403" s="39"/>
+      <c r="G403" s="39"/>
+      <c r="H403" s="39"/>
+      <c r="I403" s="39"/>
+      <c r="J403" s="39"/>
+      <c r="K403" s="39"/>
+      <c r="L403" s="39"/>
+      <c r="M403" s="39"/>
+      <c r="N403" s="39"/>
+      <c r="O403" s="39"/>
+      <c r="P403" s="39"/>
+      <c r="Q403" s="39"/>
+      <c r="R403" s="39"/>
+      <c r="S403" s="39"/>
+      <c r="T403" s="39"/>
     </row>
     <row r="404" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
@@ -24826,74 +24817,74 @@
       </c>
     </row>
     <row r="419" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A419" s="29" t="s">
+      <c r="A419" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B419" s="30"/>
-      <c r="C419" s="30"/>
-      <c r="D419" s="30"/>
-      <c r="E419" s="30"/>
-      <c r="F419" s="30"/>
-      <c r="G419" s="30"/>
-      <c r="H419" s="30"/>
-      <c r="I419" s="30"/>
-      <c r="J419" s="30"/>
-      <c r="K419" s="30"/>
-      <c r="L419" s="30"/>
-      <c r="M419" s="30"/>
-      <c r="N419" s="30"/>
-      <c r="O419" s="30"/>
-      <c r="P419" s="30"/>
-      <c r="Q419" s="30"/>
-      <c r="R419" s="30"/>
-      <c r="S419" s="30"/>
-      <c r="T419" s="30"/>
+      <c r="B419" s="39"/>
+      <c r="C419" s="39"/>
+      <c r="D419" s="39"/>
+      <c r="E419" s="39"/>
+      <c r="F419" s="39"/>
+      <c r="G419" s="39"/>
+      <c r="H419" s="39"/>
+      <c r="I419" s="39"/>
+      <c r="J419" s="39"/>
+      <c r="K419" s="39"/>
+      <c r="L419" s="39"/>
+      <c r="M419" s="39"/>
+      <c r="N419" s="39"/>
+      <c r="O419" s="39"/>
+      <c r="P419" s="39"/>
+      <c r="Q419" s="39"/>
+      <c r="R419" s="39"/>
+      <c r="S419" s="39"/>
+      <c r="T419" s="39"/>
     </row>
     <row r="420" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A420" s="29" t="s">
+      <c r="A420" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B420" s="30"/>
-      <c r="C420" s="30"/>
-      <c r="D420" s="30"/>
-      <c r="E420" s="30"/>
-      <c r="F420" s="30"/>
-      <c r="G420" s="30"/>
-      <c r="H420" s="30"/>
-      <c r="I420" s="30"/>
-      <c r="J420" s="30"/>
-      <c r="K420" s="30"/>
-      <c r="L420" s="30"/>
-      <c r="M420" s="30"/>
-      <c r="N420" s="30"/>
-      <c r="O420" s="30"/>
-      <c r="P420" s="30"/>
-      <c r="Q420" s="30"/>
-      <c r="R420" s="30"/>
-      <c r="S420" s="30"/>
-      <c r="T420" s="30"/>
+      <c r="B420" s="39"/>
+      <c r="C420" s="39"/>
+      <c r="D420" s="39"/>
+      <c r="E420" s="39"/>
+      <c r="F420" s="39"/>
+      <c r="G420" s="39"/>
+      <c r="H420" s="39"/>
+      <c r="I420" s="39"/>
+      <c r="J420" s="39"/>
+      <c r="K420" s="39"/>
+      <c r="L420" s="39"/>
+      <c r="M420" s="39"/>
+      <c r="N420" s="39"/>
+      <c r="O420" s="39"/>
+      <c r="P420" s="39"/>
+      <c r="Q420" s="39"/>
+      <c r="R420" s="39"/>
+      <c r="S420" s="39"/>
+      <c r="T420" s="39"/>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A421" s="30"/>
-      <c r="B421" s="30"/>
-      <c r="C421" s="30"/>
-      <c r="D421" s="30"/>
-      <c r="E421" s="30"/>
-      <c r="F421" s="30"/>
-      <c r="G421" s="30"/>
-      <c r="H421" s="30"/>
-      <c r="I421" s="30"/>
-      <c r="J421" s="30"/>
-      <c r="K421" s="30"/>
-      <c r="L421" s="30"/>
-      <c r="M421" s="30"/>
-      <c r="N421" s="30"/>
-      <c r="O421" s="30"/>
-      <c r="P421" s="30"/>
-      <c r="Q421" s="30"/>
-      <c r="R421" s="30"/>
-      <c r="S421" s="30"/>
-      <c r="T421" s="30"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
+      <c r="C421" s="39"/>
+      <c r="D421" s="39"/>
+      <c r="E421" s="39"/>
+      <c r="F421" s="39"/>
+      <c r="G421" s="39"/>
+      <c r="H421" s="39"/>
+      <c r="I421" s="39"/>
+      <c r="J421" s="39"/>
+      <c r="K421" s="39"/>
+      <c r="L421" s="39"/>
+      <c r="M421" s="39"/>
+      <c r="N421" s="39"/>
+      <c r="O421" s="39"/>
+      <c r="P421" s="39"/>
+      <c r="Q421" s="39"/>
+      <c r="R421" s="39"/>
+      <c r="S421" s="39"/>
+      <c r="T421" s="39"/>
     </row>
     <row r="422" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
@@ -26308,74 +26299,74 @@
       </c>
     </row>
     <row r="445" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A445" s="29" t="s">
+      <c r="A445" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B445" s="30"/>
-      <c r="C445" s="30"/>
-      <c r="D445" s="30"/>
-      <c r="E445" s="30"/>
-      <c r="F445" s="30"/>
-      <c r="G445" s="30"/>
-      <c r="H445" s="30"/>
-      <c r="I445" s="30"/>
-      <c r="J445" s="30"/>
-      <c r="K445" s="30"/>
-      <c r="L445" s="30"/>
-      <c r="M445" s="30"/>
-      <c r="N445" s="30"/>
-      <c r="O445" s="30"/>
-      <c r="P445" s="30"/>
-      <c r="Q445" s="30"/>
-      <c r="R445" s="30"/>
-      <c r="S445" s="30"/>
-      <c r="T445" s="30"/>
+      <c r="B445" s="39"/>
+      <c r="C445" s="39"/>
+      <c r="D445" s="39"/>
+      <c r="E445" s="39"/>
+      <c r="F445" s="39"/>
+      <c r="G445" s="39"/>
+      <c r="H445" s="39"/>
+      <c r="I445" s="39"/>
+      <c r="J445" s="39"/>
+      <c r="K445" s="39"/>
+      <c r="L445" s="39"/>
+      <c r="M445" s="39"/>
+      <c r="N445" s="39"/>
+      <c r="O445" s="39"/>
+      <c r="P445" s="39"/>
+      <c r="Q445" s="39"/>
+      <c r="R445" s="39"/>
+      <c r="S445" s="39"/>
+      <c r="T445" s="39"/>
     </row>
     <row r="446" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A446" s="29" t="s">
+      <c r="A446" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B446" s="30"/>
-      <c r="C446" s="30"/>
-      <c r="D446" s="30"/>
-      <c r="E446" s="30"/>
-      <c r="F446" s="30"/>
-      <c r="G446" s="30"/>
-      <c r="H446" s="30"/>
-      <c r="I446" s="30"/>
-      <c r="J446" s="30"/>
-      <c r="K446" s="30"/>
-      <c r="L446" s="30"/>
-      <c r="M446" s="30"/>
-      <c r="N446" s="30"/>
-      <c r="O446" s="30"/>
-      <c r="P446" s="30"/>
-      <c r="Q446" s="30"/>
-      <c r="R446" s="30"/>
-      <c r="S446" s="30"/>
-      <c r="T446" s="30"/>
+      <c r="B446" s="39"/>
+      <c r="C446" s="39"/>
+      <c r="D446" s="39"/>
+      <c r="E446" s="39"/>
+      <c r="F446" s="39"/>
+      <c r="G446" s="39"/>
+      <c r="H446" s="39"/>
+      <c r="I446" s="39"/>
+      <c r="J446" s="39"/>
+      <c r="K446" s="39"/>
+      <c r="L446" s="39"/>
+      <c r="M446" s="39"/>
+      <c r="N446" s="39"/>
+      <c r="O446" s="39"/>
+      <c r="P446" s="39"/>
+      <c r="Q446" s="39"/>
+      <c r="R446" s="39"/>
+      <c r="S446" s="39"/>
+      <c r="T446" s="39"/>
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A447" s="30"/>
-      <c r="B447" s="30"/>
-      <c r="C447" s="30"/>
-      <c r="D447" s="30"/>
-      <c r="E447" s="30"/>
-      <c r="F447" s="30"/>
-      <c r="G447" s="30"/>
-      <c r="H447" s="30"/>
-      <c r="I447" s="30"/>
-      <c r="J447" s="30"/>
-      <c r="K447" s="30"/>
-      <c r="L447" s="30"/>
-      <c r="M447" s="30"/>
-      <c r="N447" s="30"/>
-      <c r="O447" s="30"/>
-      <c r="P447" s="30"/>
-      <c r="Q447" s="30"/>
-      <c r="R447" s="30"/>
-      <c r="S447" s="30"/>
-      <c r="T447" s="30"/>
+      <c r="A447" s="39"/>
+      <c r="B447" s="39"/>
+      <c r="C447" s="39"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="39"/>
+      <c r="F447" s="39"/>
+      <c r="G447" s="39"/>
+      <c r="H447" s="39"/>
+      <c r="I447" s="39"/>
+      <c r="J447" s="39"/>
+      <c r="K447" s="39"/>
+      <c r="L447" s="39"/>
+      <c r="M447" s="39"/>
+      <c r="N447" s="39"/>
+      <c r="O447" s="39"/>
+      <c r="P447" s="39"/>
+      <c r="Q447" s="39"/>
+      <c r="R447" s="39"/>
+      <c r="S447" s="39"/>
+      <c r="T447" s="39"/>
     </row>
     <row r="448" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
@@ -28644,74 +28635,74 @@
       </c>
     </row>
     <row r="485" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A485" s="29" t="s">
+      <c r="A485" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B485" s="30"/>
-      <c r="C485" s="30"/>
-      <c r="D485" s="30"/>
-      <c r="E485" s="30"/>
-      <c r="F485" s="30"/>
-      <c r="G485" s="30"/>
-      <c r="H485" s="30"/>
-      <c r="I485" s="30"/>
-      <c r="J485" s="30"/>
-      <c r="K485" s="30"/>
-      <c r="L485" s="30"/>
-      <c r="M485" s="30"/>
-      <c r="N485" s="30"/>
-      <c r="O485" s="30"/>
-      <c r="P485" s="30"/>
-      <c r="Q485" s="30"/>
-      <c r="R485" s="30"/>
-      <c r="S485" s="30"/>
-      <c r="T485" s="30"/>
+      <c r="B485" s="39"/>
+      <c r="C485" s="39"/>
+      <c r="D485" s="39"/>
+      <c r="E485" s="39"/>
+      <c r="F485" s="39"/>
+      <c r="G485" s="39"/>
+      <c r="H485" s="39"/>
+      <c r="I485" s="39"/>
+      <c r="J485" s="39"/>
+      <c r="K485" s="39"/>
+      <c r="L485" s="39"/>
+      <c r="M485" s="39"/>
+      <c r="N485" s="39"/>
+      <c r="O485" s="39"/>
+      <c r="P485" s="39"/>
+      <c r="Q485" s="39"/>
+      <c r="R485" s="39"/>
+      <c r="S485" s="39"/>
+      <c r="T485" s="39"/>
     </row>
     <row r="486" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A486" s="29" t="s">
+      <c r="A486" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B486" s="30"/>
-      <c r="C486" s="30"/>
-      <c r="D486" s="30"/>
-      <c r="E486" s="30"/>
-      <c r="F486" s="30"/>
-      <c r="G486" s="30"/>
-      <c r="H486" s="30"/>
-      <c r="I486" s="30"/>
-      <c r="J486" s="30"/>
-      <c r="K486" s="30"/>
-      <c r="L486" s="30"/>
-      <c r="M486" s="30"/>
-      <c r="N486" s="30"/>
-      <c r="O486" s="30"/>
-      <c r="P486" s="30"/>
-      <c r="Q486" s="30"/>
-      <c r="R486" s="30"/>
-      <c r="S486" s="30"/>
-      <c r="T486" s="30"/>
+      <c r="B486" s="39"/>
+      <c r="C486" s="39"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="39"/>
+      <c r="F486" s="39"/>
+      <c r="G486" s="39"/>
+      <c r="H486" s="39"/>
+      <c r="I486" s="39"/>
+      <c r="J486" s="39"/>
+      <c r="K486" s="39"/>
+      <c r="L486" s="39"/>
+      <c r="M486" s="39"/>
+      <c r="N486" s="39"/>
+      <c r="O486" s="39"/>
+      <c r="P486" s="39"/>
+      <c r="Q486" s="39"/>
+      <c r="R486" s="39"/>
+      <c r="S486" s="39"/>
+      <c r="T486" s="39"/>
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A487" s="30"/>
-      <c r="B487" s="30"/>
-      <c r="C487" s="30"/>
-      <c r="D487" s="30"/>
-      <c r="E487" s="30"/>
-      <c r="F487" s="30"/>
-      <c r="G487" s="30"/>
-      <c r="H487" s="30"/>
-      <c r="I487" s="30"/>
-      <c r="J487" s="30"/>
-      <c r="K487" s="30"/>
-      <c r="L487" s="30"/>
-      <c r="M487" s="30"/>
-      <c r="N487" s="30"/>
-      <c r="O487" s="30"/>
-      <c r="P487" s="30"/>
-      <c r="Q487" s="30"/>
-      <c r="R487" s="30"/>
-      <c r="S487" s="30"/>
-      <c r="T487" s="30"/>
+      <c r="A487" s="39"/>
+      <c r="B487" s="39"/>
+      <c r="C487" s="39"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="39"/>
+      <c r="F487" s="39"/>
+      <c r="G487" s="39"/>
+      <c r="H487" s="39"/>
+      <c r="I487" s="39"/>
+      <c r="J487" s="39"/>
+      <c r="K487" s="39"/>
+      <c r="L487" s="39"/>
+      <c r="M487" s="39"/>
+      <c r="N487" s="39"/>
+      <c r="O487" s="39"/>
+      <c r="P487" s="39"/>
+      <c r="Q487" s="39"/>
+      <c r="R487" s="39"/>
+      <c r="S487" s="39"/>
+      <c r="T487" s="39"/>
     </row>
     <row r="488" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
@@ -29672,74 +29663,74 @@
       </c>
     </row>
     <row r="504" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A504" s="29" t="s">
+      <c r="A504" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B504" s="30"/>
-      <c r="C504" s="30"/>
-      <c r="D504" s="30"/>
-      <c r="E504" s="30"/>
-      <c r="F504" s="30"/>
-      <c r="G504" s="30"/>
-      <c r="H504" s="30"/>
-      <c r="I504" s="30"/>
-      <c r="J504" s="30"/>
-      <c r="K504" s="30"/>
-      <c r="L504" s="30"/>
-      <c r="M504" s="30"/>
-      <c r="N504" s="30"/>
-      <c r="O504" s="30"/>
-      <c r="P504" s="30"/>
-      <c r="Q504" s="30"/>
-      <c r="R504" s="30"/>
-      <c r="S504" s="30"/>
-      <c r="T504" s="30"/>
+      <c r="B504" s="39"/>
+      <c r="C504" s="39"/>
+      <c r="D504" s="39"/>
+      <c r="E504" s="39"/>
+      <c r="F504" s="39"/>
+      <c r="G504" s="39"/>
+      <c r="H504" s="39"/>
+      <c r="I504" s="39"/>
+      <c r="J504" s="39"/>
+      <c r="K504" s="39"/>
+      <c r="L504" s="39"/>
+      <c r="M504" s="39"/>
+      <c r="N504" s="39"/>
+      <c r="O504" s="39"/>
+      <c r="P504" s="39"/>
+      <c r="Q504" s="39"/>
+      <c r="R504" s="39"/>
+      <c r="S504" s="39"/>
+      <c r="T504" s="39"/>
     </row>
     <row r="505" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A505" s="29" t="s">
+      <c r="A505" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B505" s="30"/>
-      <c r="C505" s="30"/>
-      <c r="D505" s="30"/>
-      <c r="E505" s="30"/>
-      <c r="F505" s="30"/>
-      <c r="G505" s="30"/>
-      <c r="H505" s="30"/>
-      <c r="I505" s="30"/>
-      <c r="J505" s="30"/>
-      <c r="K505" s="30"/>
-      <c r="L505" s="30"/>
-      <c r="M505" s="30"/>
-      <c r="N505" s="30"/>
-      <c r="O505" s="30"/>
-      <c r="P505" s="30"/>
-      <c r="Q505" s="30"/>
-      <c r="R505" s="30"/>
-      <c r="S505" s="30"/>
-      <c r="T505" s="30"/>
+      <c r="B505" s="39"/>
+      <c r="C505" s="39"/>
+      <c r="D505" s="39"/>
+      <c r="E505" s="39"/>
+      <c r="F505" s="39"/>
+      <c r="G505" s="39"/>
+      <c r="H505" s="39"/>
+      <c r="I505" s="39"/>
+      <c r="J505" s="39"/>
+      <c r="K505" s="39"/>
+      <c r="L505" s="39"/>
+      <c r="M505" s="39"/>
+      <c r="N505" s="39"/>
+      <c r="O505" s="39"/>
+      <c r="P505" s="39"/>
+      <c r="Q505" s="39"/>
+      <c r="R505" s="39"/>
+      <c r="S505" s="39"/>
+      <c r="T505" s="39"/>
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A506" s="30"/>
-      <c r="B506" s="30"/>
-      <c r="C506" s="30"/>
-      <c r="D506" s="30"/>
-      <c r="E506" s="30"/>
-      <c r="F506" s="30"/>
-      <c r="G506" s="30"/>
-      <c r="H506" s="30"/>
-      <c r="I506" s="30"/>
-      <c r="J506" s="30"/>
-      <c r="K506" s="30"/>
-      <c r="L506" s="30"/>
-      <c r="M506" s="30"/>
-      <c r="N506" s="30"/>
-      <c r="O506" s="30"/>
-      <c r="P506" s="30"/>
-      <c r="Q506" s="30"/>
-      <c r="R506" s="30"/>
-      <c r="S506" s="30"/>
-      <c r="T506" s="30"/>
+      <c r="A506" s="39"/>
+      <c r="B506" s="39"/>
+      <c r="C506" s="39"/>
+      <c r="D506" s="39"/>
+      <c r="E506" s="39"/>
+      <c r="F506" s="39"/>
+      <c r="G506" s="39"/>
+      <c r="H506" s="39"/>
+      <c r="I506" s="39"/>
+      <c r="J506" s="39"/>
+      <c r="K506" s="39"/>
+      <c r="L506" s="39"/>
+      <c r="M506" s="39"/>
+      <c r="N506" s="39"/>
+      <c r="O506" s="39"/>
+      <c r="P506" s="39"/>
+      <c r="Q506" s="39"/>
+      <c r="R506" s="39"/>
+      <c r="S506" s="39"/>
+      <c r="T506" s="39"/>
     </row>
     <row r="507" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
@@ -31166,74 +31157,74 @@
       </c>
     </row>
     <row r="530" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A530" s="29" t="s">
+      <c r="A530" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B530" s="30"/>
-      <c r="C530" s="30"/>
-      <c r="D530" s="30"/>
-      <c r="E530" s="30"/>
-      <c r="F530" s="30"/>
-      <c r="G530" s="30"/>
-      <c r="H530" s="30"/>
-      <c r="I530" s="30"/>
-      <c r="J530" s="30"/>
-      <c r="K530" s="30"/>
-      <c r="L530" s="30"/>
-      <c r="M530" s="30"/>
-      <c r="N530" s="30"/>
-      <c r="O530" s="30"/>
-      <c r="P530" s="30"/>
-      <c r="Q530" s="30"/>
-      <c r="R530" s="30"/>
-      <c r="S530" s="30"/>
-      <c r="T530" s="30"/>
+      <c r="B530" s="39"/>
+      <c r="C530" s="39"/>
+      <c r="D530" s="39"/>
+      <c r="E530" s="39"/>
+      <c r="F530" s="39"/>
+      <c r="G530" s="39"/>
+      <c r="H530" s="39"/>
+      <c r="I530" s="39"/>
+      <c r="J530" s="39"/>
+      <c r="K530" s="39"/>
+      <c r="L530" s="39"/>
+      <c r="M530" s="39"/>
+      <c r="N530" s="39"/>
+      <c r="O530" s="39"/>
+      <c r="P530" s="39"/>
+      <c r="Q530" s="39"/>
+      <c r="R530" s="39"/>
+      <c r="S530" s="39"/>
+      <c r="T530" s="39"/>
     </row>
     <row r="531" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A531" s="29" t="s">
+      <c r="A531" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B531" s="30"/>
-      <c r="C531" s="30"/>
-      <c r="D531" s="30"/>
-      <c r="E531" s="30"/>
-      <c r="F531" s="30"/>
-      <c r="G531" s="30"/>
-      <c r="H531" s="30"/>
-      <c r="I531" s="30"/>
-      <c r="J531" s="30"/>
-      <c r="K531" s="30"/>
-      <c r="L531" s="30"/>
-      <c r="M531" s="30"/>
-      <c r="N531" s="30"/>
-      <c r="O531" s="30"/>
-      <c r="P531" s="30"/>
-      <c r="Q531" s="30"/>
-      <c r="R531" s="30"/>
-      <c r="S531" s="30"/>
-      <c r="T531" s="30"/>
+      <c r="B531" s="39"/>
+      <c r="C531" s="39"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="39"/>
+      <c r="F531" s="39"/>
+      <c r="G531" s="39"/>
+      <c r="H531" s="39"/>
+      <c r="I531" s="39"/>
+      <c r="J531" s="39"/>
+      <c r="K531" s="39"/>
+      <c r="L531" s="39"/>
+      <c r="M531" s="39"/>
+      <c r="N531" s="39"/>
+      <c r="O531" s="39"/>
+      <c r="P531" s="39"/>
+      <c r="Q531" s="39"/>
+      <c r="R531" s="39"/>
+      <c r="S531" s="39"/>
+      <c r="T531" s="39"/>
     </row>
     <row r="532" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A532" s="30"/>
-      <c r="B532" s="30"/>
-      <c r="C532" s="30"/>
-      <c r="D532" s="30"/>
-      <c r="E532" s="30"/>
-      <c r="F532" s="30"/>
-      <c r="G532" s="30"/>
-      <c r="H532" s="30"/>
-      <c r="I532" s="30"/>
-      <c r="J532" s="30"/>
-      <c r="K532" s="30"/>
-      <c r="L532" s="30"/>
-      <c r="M532" s="30"/>
-      <c r="N532" s="30"/>
-      <c r="O532" s="30"/>
-      <c r="P532" s="30"/>
-      <c r="Q532" s="30"/>
-      <c r="R532" s="30"/>
-      <c r="S532" s="30"/>
-      <c r="T532" s="30"/>
+      <c r="A532" s="39"/>
+      <c r="B532" s="39"/>
+      <c r="C532" s="39"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="39"/>
+      <c r="F532" s="39"/>
+      <c r="G532" s="39"/>
+      <c r="H532" s="39"/>
+      <c r="I532" s="39"/>
+      <c r="J532" s="39"/>
+      <c r="K532" s="39"/>
+      <c r="L532" s="39"/>
+      <c r="M532" s="39"/>
+      <c r="N532" s="39"/>
+      <c r="O532" s="39"/>
+      <c r="P532" s="39"/>
+      <c r="Q532" s="39"/>
+      <c r="R532" s="39"/>
+      <c r="S532" s="39"/>
+      <c r="T532" s="39"/>
     </row>
     <row r="533" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
@@ -33392,74 +33383,74 @@
       </c>
     </row>
     <row r="568" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A568" s="29" t="s">
+      <c r="A568" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B568" s="30"/>
-      <c r="C568" s="30"/>
-      <c r="D568" s="30"/>
-      <c r="E568" s="30"/>
-      <c r="F568" s="30"/>
-      <c r="G568" s="30"/>
-      <c r="H568" s="30"/>
-      <c r="I568" s="30"/>
-      <c r="J568" s="30"/>
-      <c r="K568" s="30"/>
-      <c r="L568" s="30"/>
-      <c r="M568" s="30"/>
-      <c r="N568" s="30"/>
-      <c r="O568" s="30"/>
-      <c r="P568" s="30"/>
-      <c r="Q568" s="30"/>
-      <c r="R568" s="30"/>
-      <c r="S568" s="30"/>
-      <c r="T568" s="30"/>
+      <c r="B568" s="39"/>
+      <c r="C568" s="39"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="39"/>
+      <c r="F568" s="39"/>
+      <c r="G568" s="39"/>
+      <c r="H568" s="39"/>
+      <c r="I568" s="39"/>
+      <c r="J568" s="39"/>
+      <c r="K568" s="39"/>
+      <c r="L568" s="39"/>
+      <c r="M568" s="39"/>
+      <c r="N568" s="39"/>
+      <c r="O568" s="39"/>
+      <c r="P568" s="39"/>
+      <c r="Q568" s="39"/>
+      <c r="R568" s="39"/>
+      <c r="S568" s="39"/>
+      <c r="T568" s="39"/>
     </row>
     <row r="569" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A569" s="29" t="s">
+      <c r="A569" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B569" s="30"/>
-      <c r="C569" s="30"/>
-      <c r="D569" s="30"/>
-      <c r="E569" s="30"/>
-      <c r="F569" s="30"/>
-      <c r="G569" s="30"/>
-      <c r="H569" s="30"/>
-      <c r="I569" s="30"/>
-      <c r="J569" s="30"/>
-      <c r="K569" s="30"/>
-      <c r="L569" s="30"/>
-      <c r="M569" s="30"/>
-      <c r="N569" s="30"/>
-      <c r="O569" s="30"/>
-      <c r="P569" s="30"/>
-      <c r="Q569" s="30"/>
-      <c r="R569" s="30"/>
-      <c r="S569" s="30"/>
-      <c r="T569" s="30"/>
+      <c r="B569" s="39"/>
+      <c r="C569" s="39"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="39"/>
+      <c r="F569" s="39"/>
+      <c r="G569" s="39"/>
+      <c r="H569" s="39"/>
+      <c r="I569" s="39"/>
+      <c r="J569" s="39"/>
+      <c r="K569" s="39"/>
+      <c r="L569" s="39"/>
+      <c r="M569" s="39"/>
+      <c r="N569" s="39"/>
+      <c r="O569" s="39"/>
+      <c r="P569" s="39"/>
+      <c r="Q569" s="39"/>
+      <c r="R569" s="39"/>
+      <c r="S569" s="39"/>
+      <c r="T569" s="39"/>
     </row>
     <row r="570" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A570" s="30"/>
-      <c r="B570" s="30"/>
-      <c r="C570" s="30"/>
-      <c r="D570" s="30"/>
-      <c r="E570" s="30"/>
-      <c r="F570" s="30"/>
-      <c r="G570" s="30"/>
-      <c r="H570" s="30"/>
-      <c r="I570" s="30"/>
-      <c r="J570" s="30"/>
-      <c r="K570" s="30"/>
-      <c r="L570" s="30"/>
-      <c r="M570" s="30"/>
-      <c r="N570" s="30"/>
-      <c r="O570" s="30"/>
-      <c r="P570" s="30"/>
-      <c r="Q570" s="30"/>
-      <c r="R570" s="30"/>
-      <c r="S570" s="30"/>
-      <c r="T570" s="30"/>
+      <c r="A570" s="39"/>
+      <c r="B570" s="39"/>
+      <c r="C570" s="39"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="39"/>
+      <c r="F570" s="39"/>
+      <c r="G570" s="39"/>
+      <c r="H570" s="39"/>
+      <c r="I570" s="39"/>
+      <c r="J570" s="39"/>
+      <c r="K570" s="39"/>
+      <c r="L570" s="39"/>
+      <c r="M570" s="39"/>
+      <c r="N570" s="39"/>
+      <c r="O570" s="39"/>
+      <c r="P570" s="39"/>
+      <c r="Q570" s="39"/>
+      <c r="R570" s="39"/>
+      <c r="S570" s="39"/>
+      <c r="T570" s="39"/>
     </row>
     <row r="571" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
@@ -34404,74 +34395,74 @@
       <c r="T586" s="23"/>
     </row>
     <row r="587" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A587" s="29" t="s">
+      <c r="A587" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B587" s="30"/>
-      <c r="C587" s="30"/>
-      <c r="D587" s="30"/>
-      <c r="E587" s="30"/>
-      <c r="F587" s="30"/>
-      <c r="G587" s="30"/>
-      <c r="H587" s="30"/>
-      <c r="I587" s="30"/>
-      <c r="J587" s="30"/>
-      <c r="K587" s="30"/>
-      <c r="L587" s="30"/>
-      <c r="M587" s="30"/>
-      <c r="N587" s="30"/>
-      <c r="O587" s="30"/>
-      <c r="P587" s="30"/>
-      <c r="Q587" s="30"/>
-      <c r="R587" s="30"/>
-      <c r="S587" s="30"/>
-      <c r="T587" s="30"/>
+      <c r="B587" s="39"/>
+      <c r="C587" s="39"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="39"/>
+      <c r="F587" s="39"/>
+      <c r="G587" s="39"/>
+      <c r="H587" s="39"/>
+      <c r="I587" s="39"/>
+      <c r="J587" s="39"/>
+      <c r="K587" s="39"/>
+      <c r="L587" s="39"/>
+      <c r="M587" s="39"/>
+      <c r="N587" s="39"/>
+      <c r="O587" s="39"/>
+      <c r="P587" s="39"/>
+      <c r="Q587" s="39"/>
+      <c r="R587" s="39"/>
+      <c r="S587" s="39"/>
+      <c r="T587" s="39"/>
     </row>
     <row r="588" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A588" s="29" t="s">
+      <c r="A588" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B588" s="30"/>
-      <c r="C588" s="30"/>
-      <c r="D588" s="30"/>
-      <c r="E588" s="30"/>
-      <c r="F588" s="30"/>
-      <c r="G588" s="30"/>
-      <c r="H588" s="30"/>
-      <c r="I588" s="30"/>
-      <c r="J588" s="30"/>
-      <c r="K588" s="30"/>
-      <c r="L588" s="30"/>
-      <c r="M588" s="30"/>
-      <c r="N588" s="30"/>
-      <c r="O588" s="30"/>
-      <c r="P588" s="30"/>
-      <c r="Q588" s="30"/>
-      <c r="R588" s="30"/>
-      <c r="S588" s="30"/>
-      <c r="T588" s="30"/>
+      <c r="B588" s="39"/>
+      <c r="C588" s="39"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="39"/>
+      <c r="F588" s="39"/>
+      <c r="G588" s="39"/>
+      <c r="H588" s="39"/>
+      <c r="I588" s="39"/>
+      <c r="J588" s="39"/>
+      <c r="K588" s="39"/>
+      <c r="L588" s="39"/>
+      <c r="M588" s="39"/>
+      <c r="N588" s="39"/>
+      <c r="O588" s="39"/>
+      <c r="P588" s="39"/>
+      <c r="Q588" s="39"/>
+      <c r="R588" s="39"/>
+      <c r="S588" s="39"/>
+      <c r="T588" s="39"/>
     </row>
     <row r="589" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A589" s="30"/>
-      <c r="B589" s="30"/>
-      <c r="C589" s="30"/>
-      <c r="D589" s="30"/>
-      <c r="E589" s="30"/>
-      <c r="F589" s="30"/>
-      <c r="G589" s="30"/>
-      <c r="H589" s="30"/>
-      <c r="I589" s="30"/>
-      <c r="J589" s="30"/>
-      <c r="K589" s="30"/>
-      <c r="L589" s="30"/>
-      <c r="M589" s="30"/>
-      <c r="N589" s="30"/>
-      <c r="O589" s="30"/>
-      <c r="P589" s="30"/>
-      <c r="Q589" s="30"/>
-      <c r="R589" s="30"/>
-      <c r="S589" s="30"/>
-      <c r="T589" s="30"/>
+      <c r="A589" s="39"/>
+      <c r="B589" s="39"/>
+      <c r="C589" s="39"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="39"/>
+      <c r="F589" s="39"/>
+      <c r="G589" s="39"/>
+      <c r="H589" s="39"/>
+      <c r="I589" s="39"/>
+      <c r="J589" s="39"/>
+      <c r="K589" s="39"/>
+      <c r="L589" s="39"/>
+      <c r="M589" s="39"/>
+      <c r="N589" s="39"/>
+      <c r="O589" s="39"/>
+      <c r="P589" s="39"/>
+      <c r="Q589" s="39"/>
+      <c r="R589" s="39"/>
+      <c r="S589" s="39"/>
+      <c r="T589" s="39"/>
     </row>
     <row r="590" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
@@ -35886,74 +35877,74 @@
       </c>
     </row>
     <row r="613" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A613" s="29" t="s">
+      <c r="A613" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B613" s="30"/>
-      <c r="C613" s="30"/>
-      <c r="D613" s="30"/>
-      <c r="E613" s="30"/>
-      <c r="F613" s="30"/>
-      <c r="G613" s="30"/>
-      <c r="H613" s="30"/>
-      <c r="I613" s="30"/>
-      <c r="J613" s="30"/>
-      <c r="K613" s="30"/>
-      <c r="L613" s="30"/>
-      <c r="M613" s="30"/>
-      <c r="N613" s="30"/>
-      <c r="O613" s="30"/>
-      <c r="P613" s="30"/>
-      <c r="Q613" s="30"/>
-      <c r="R613" s="30"/>
-      <c r="S613" s="30"/>
-      <c r="T613" s="30"/>
+      <c r="B613" s="39"/>
+      <c r="C613" s="39"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="39"/>
+      <c r="F613" s="39"/>
+      <c r="G613" s="39"/>
+      <c r="H613" s="39"/>
+      <c r="I613" s="39"/>
+      <c r="J613" s="39"/>
+      <c r="K613" s="39"/>
+      <c r="L613" s="39"/>
+      <c r="M613" s="39"/>
+      <c r="N613" s="39"/>
+      <c r="O613" s="39"/>
+      <c r="P613" s="39"/>
+      <c r="Q613" s="39"/>
+      <c r="R613" s="39"/>
+      <c r="S613" s="39"/>
+      <c r="T613" s="39"/>
     </row>
     <row r="614" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A614" s="29" t="s">
+      <c r="A614" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B614" s="30"/>
-      <c r="C614" s="30"/>
-      <c r="D614" s="30"/>
-      <c r="E614" s="30"/>
-      <c r="F614" s="30"/>
-      <c r="G614" s="30"/>
-      <c r="H614" s="30"/>
-      <c r="I614" s="30"/>
-      <c r="J614" s="30"/>
-      <c r="K614" s="30"/>
-      <c r="L614" s="30"/>
-      <c r="M614" s="30"/>
-      <c r="N614" s="30"/>
-      <c r="O614" s="30"/>
-      <c r="P614" s="30"/>
-      <c r="Q614" s="30"/>
-      <c r="R614" s="30"/>
-      <c r="S614" s="30"/>
-      <c r="T614" s="30"/>
+      <c r="B614" s="39"/>
+      <c r="C614" s="39"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="39"/>
+      <c r="F614" s="39"/>
+      <c r="G614" s="39"/>
+      <c r="H614" s="39"/>
+      <c r="I614" s="39"/>
+      <c r="J614" s="39"/>
+      <c r="K614" s="39"/>
+      <c r="L614" s="39"/>
+      <c r="M614" s="39"/>
+      <c r="N614" s="39"/>
+      <c r="O614" s="39"/>
+      <c r="P614" s="39"/>
+      <c r="Q614" s="39"/>
+      <c r="R614" s="39"/>
+      <c r="S614" s="39"/>
+      <c r="T614" s="39"/>
     </row>
     <row r="615" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A615" s="30"/>
-      <c r="B615" s="30"/>
-      <c r="C615" s="30"/>
-      <c r="D615" s="30"/>
-      <c r="E615" s="30"/>
-      <c r="F615" s="30"/>
-      <c r="G615" s="30"/>
-      <c r="H615" s="30"/>
-      <c r="I615" s="30"/>
-      <c r="J615" s="30"/>
-      <c r="K615" s="30"/>
-      <c r="L615" s="30"/>
-      <c r="M615" s="30"/>
-      <c r="N615" s="30"/>
-      <c r="O615" s="30"/>
-      <c r="P615" s="30"/>
-      <c r="Q615" s="30"/>
-      <c r="R615" s="30"/>
-      <c r="S615" s="30"/>
-      <c r="T615" s="30"/>
+      <c r="A615" s="39"/>
+      <c r="B615" s="39"/>
+      <c r="C615" s="39"/>
+      <c r="D615" s="39"/>
+      <c r="E615" s="39"/>
+      <c r="F615" s="39"/>
+      <c r="G615" s="39"/>
+      <c r="H615" s="39"/>
+      <c r="I615" s="39"/>
+      <c r="J615" s="39"/>
+      <c r="K615" s="39"/>
+      <c r="L615" s="39"/>
+      <c r="M615" s="39"/>
+      <c r="N615" s="39"/>
+      <c r="O615" s="39"/>
+      <c r="P615" s="39"/>
+      <c r="Q615" s="39"/>
+      <c r="R615" s="39"/>
+      <c r="S615" s="39"/>
+      <c r="T615" s="39"/>
     </row>
     <row r="616" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
@@ -38158,74 +38149,74 @@
       </c>
     </row>
     <row r="652" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A652" s="29" t="s">
+      <c r="A652" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B652" s="30"/>
-      <c r="C652" s="30"/>
-      <c r="D652" s="30"/>
-      <c r="E652" s="30"/>
-      <c r="F652" s="30"/>
-      <c r="G652" s="30"/>
-      <c r="H652" s="30"/>
-      <c r="I652" s="30"/>
-      <c r="J652" s="30"/>
-      <c r="K652" s="30"/>
-      <c r="L652" s="30"/>
-      <c r="M652" s="30"/>
-      <c r="N652" s="30"/>
-      <c r="O652" s="30"/>
-      <c r="P652" s="30"/>
-      <c r="Q652" s="30"/>
-      <c r="R652" s="30"/>
-      <c r="S652" s="30"/>
-      <c r="T652" s="30"/>
+      <c r="B652" s="39"/>
+      <c r="C652" s="39"/>
+      <c r="D652" s="39"/>
+      <c r="E652" s="39"/>
+      <c r="F652" s="39"/>
+      <c r="G652" s="39"/>
+      <c r="H652" s="39"/>
+      <c r="I652" s="39"/>
+      <c r="J652" s="39"/>
+      <c r="K652" s="39"/>
+      <c r="L652" s="39"/>
+      <c r="M652" s="39"/>
+      <c r="N652" s="39"/>
+      <c r="O652" s="39"/>
+      <c r="P652" s="39"/>
+      <c r="Q652" s="39"/>
+      <c r="R652" s="39"/>
+      <c r="S652" s="39"/>
+      <c r="T652" s="39"/>
     </row>
     <row r="653" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A653" s="29" t="s">
+      <c r="A653" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B653" s="30"/>
-      <c r="C653" s="30"/>
-      <c r="D653" s="30"/>
-      <c r="E653" s="30"/>
-      <c r="F653" s="30"/>
-      <c r="G653" s="30"/>
-      <c r="H653" s="30"/>
-      <c r="I653" s="30"/>
-      <c r="J653" s="30"/>
-      <c r="K653" s="30"/>
-      <c r="L653" s="30"/>
-      <c r="M653" s="30"/>
-      <c r="N653" s="30"/>
-      <c r="O653" s="30"/>
-      <c r="P653" s="30"/>
-      <c r="Q653" s="30"/>
-      <c r="R653" s="30"/>
-      <c r="S653" s="30"/>
-      <c r="T653" s="30"/>
+      <c r="B653" s="39"/>
+      <c r="C653" s="39"/>
+      <c r="D653" s="39"/>
+      <c r="E653" s="39"/>
+      <c r="F653" s="39"/>
+      <c r="G653" s="39"/>
+      <c r="H653" s="39"/>
+      <c r="I653" s="39"/>
+      <c r="J653" s="39"/>
+      <c r="K653" s="39"/>
+      <c r="L653" s="39"/>
+      <c r="M653" s="39"/>
+      <c r="N653" s="39"/>
+      <c r="O653" s="39"/>
+      <c r="P653" s="39"/>
+      <c r="Q653" s="39"/>
+      <c r="R653" s="39"/>
+      <c r="S653" s="39"/>
+      <c r="T653" s="39"/>
     </row>
     <row r="654" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A654" s="30"/>
-      <c r="B654" s="30"/>
-      <c r="C654" s="30"/>
-      <c r="D654" s="30"/>
-      <c r="E654" s="30"/>
-      <c r="F654" s="30"/>
-      <c r="G654" s="30"/>
-      <c r="H654" s="30"/>
-      <c r="I654" s="30"/>
-      <c r="J654" s="30"/>
-      <c r="K654" s="30"/>
-      <c r="L654" s="30"/>
-      <c r="M654" s="30"/>
-      <c r="N654" s="30"/>
-      <c r="O654" s="30"/>
-      <c r="P654" s="30"/>
-      <c r="Q654" s="30"/>
-      <c r="R654" s="30"/>
-      <c r="S654" s="30"/>
-      <c r="T654" s="30"/>
+      <c r="A654" s="39"/>
+      <c r="B654" s="39"/>
+      <c r="C654" s="39"/>
+      <c r="D654" s="39"/>
+      <c r="E654" s="39"/>
+      <c r="F654" s="39"/>
+      <c r="G654" s="39"/>
+      <c r="H654" s="39"/>
+      <c r="I654" s="39"/>
+      <c r="J654" s="39"/>
+      <c r="K654" s="39"/>
+      <c r="L654" s="39"/>
+      <c r="M654" s="39"/>
+      <c r="N654" s="39"/>
+      <c r="O654" s="39"/>
+      <c r="P654" s="39"/>
+      <c r="Q654" s="39"/>
+      <c r="R654" s="39"/>
+      <c r="S654" s="39"/>
+      <c r="T654" s="39"/>
     </row>
     <row r="655" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
@@ -39186,74 +39177,74 @@
       </c>
     </row>
     <row r="671" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A671" s="29" t="s">
+      <c r="A671" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B671" s="30"/>
-      <c r="C671" s="30"/>
-      <c r="D671" s="30"/>
-      <c r="E671" s="30"/>
-      <c r="F671" s="30"/>
-      <c r="G671" s="30"/>
-      <c r="H671" s="30"/>
-      <c r="I671" s="30"/>
-      <c r="J671" s="30"/>
-      <c r="K671" s="30"/>
-      <c r="L671" s="30"/>
-      <c r="M671" s="30"/>
-      <c r="N671" s="30"/>
-      <c r="O671" s="30"/>
-      <c r="P671" s="30"/>
-      <c r="Q671" s="30"/>
-      <c r="R671" s="30"/>
-      <c r="S671" s="30"/>
-      <c r="T671" s="30"/>
+      <c r="B671" s="39"/>
+      <c r="C671" s="39"/>
+      <c r="D671" s="39"/>
+      <c r="E671" s="39"/>
+      <c r="F671" s="39"/>
+      <c r="G671" s="39"/>
+      <c r="H671" s="39"/>
+      <c r="I671" s="39"/>
+      <c r="J671" s="39"/>
+      <c r="K671" s="39"/>
+      <c r="L671" s="39"/>
+      <c r="M671" s="39"/>
+      <c r="N671" s="39"/>
+      <c r="O671" s="39"/>
+      <c r="P671" s="39"/>
+      <c r="Q671" s="39"/>
+      <c r="R671" s="39"/>
+      <c r="S671" s="39"/>
+      <c r="T671" s="39"/>
     </row>
     <row r="672" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A672" s="29" t="s">
+      <c r="A672" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B672" s="30"/>
-      <c r="C672" s="30"/>
-      <c r="D672" s="30"/>
-      <c r="E672" s="30"/>
-      <c r="F672" s="30"/>
-      <c r="G672" s="30"/>
-      <c r="H672" s="30"/>
-      <c r="I672" s="30"/>
-      <c r="J672" s="30"/>
-      <c r="K672" s="30"/>
-      <c r="L672" s="30"/>
-      <c r="M672" s="30"/>
-      <c r="N672" s="30"/>
-      <c r="O672" s="30"/>
-      <c r="P672" s="30"/>
-      <c r="Q672" s="30"/>
-      <c r="R672" s="30"/>
-      <c r="S672" s="30"/>
-      <c r="T672" s="30"/>
+      <c r="B672" s="39"/>
+      <c r="C672" s="39"/>
+      <c r="D672" s="39"/>
+      <c r="E672" s="39"/>
+      <c r="F672" s="39"/>
+      <c r="G672" s="39"/>
+      <c r="H672" s="39"/>
+      <c r="I672" s="39"/>
+      <c r="J672" s="39"/>
+      <c r="K672" s="39"/>
+      <c r="L672" s="39"/>
+      <c r="M672" s="39"/>
+      <c r="N672" s="39"/>
+      <c r="O672" s="39"/>
+      <c r="P672" s="39"/>
+      <c r="Q672" s="39"/>
+      <c r="R672" s="39"/>
+      <c r="S672" s="39"/>
+      <c r="T672" s="39"/>
     </row>
     <row r="673" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A673" s="30"/>
-      <c r="B673" s="30"/>
-      <c r="C673" s="30"/>
-      <c r="D673" s="30"/>
-      <c r="E673" s="30"/>
-      <c r="F673" s="30"/>
-      <c r="G673" s="30"/>
-      <c r="H673" s="30"/>
-      <c r="I673" s="30"/>
-      <c r="J673" s="30"/>
-      <c r="K673" s="30"/>
-      <c r="L673" s="30"/>
-      <c r="M673" s="30"/>
-      <c r="N673" s="30"/>
-      <c r="O673" s="30"/>
-      <c r="P673" s="30"/>
-      <c r="Q673" s="30"/>
-      <c r="R673" s="30"/>
-      <c r="S673" s="30"/>
-      <c r="T673" s="30"/>
+      <c r="A673" s="39"/>
+      <c r="B673" s="39"/>
+      <c r="C673" s="39"/>
+      <c r="D673" s="39"/>
+      <c r="E673" s="39"/>
+      <c r="F673" s="39"/>
+      <c r="G673" s="39"/>
+      <c r="H673" s="39"/>
+      <c r="I673" s="39"/>
+      <c r="J673" s="39"/>
+      <c r="K673" s="39"/>
+      <c r="L673" s="39"/>
+      <c r="M673" s="39"/>
+      <c r="N673" s="39"/>
+      <c r="O673" s="39"/>
+      <c r="P673" s="39"/>
+      <c r="Q673" s="39"/>
+      <c r="R673" s="39"/>
+      <c r="S673" s="39"/>
+      <c r="T673" s="39"/>
     </row>
     <row r="674" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
@@ -40242,74 +40233,74 @@
       <c r="T696" s="23"/>
     </row>
     <row r="697" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A697" s="29" t="s">
+      <c r="A697" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B697" s="30"/>
-      <c r="C697" s="30"/>
-      <c r="D697" s="30"/>
-      <c r="E697" s="30"/>
-      <c r="F697" s="30"/>
-      <c r="G697" s="30"/>
-      <c r="H697" s="30"/>
-      <c r="I697" s="30"/>
-      <c r="J697" s="30"/>
-      <c r="K697" s="30"/>
-      <c r="L697" s="30"/>
-      <c r="M697" s="30"/>
-      <c r="N697" s="30"/>
-      <c r="O697" s="30"/>
-      <c r="P697" s="30"/>
-      <c r="Q697" s="30"/>
-      <c r="R697" s="30"/>
-      <c r="S697" s="30"/>
-      <c r="T697" s="30"/>
+      <c r="B697" s="39"/>
+      <c r="C697" s="39"/>
+      <c r="D697" s="39"/>
+      <c r="E697" s="39"/>
+      <c r="F697" s="39"/>
+      <c r="G697" s="39"/>
+      <c r="H697" s="39"/>
+      <c r="I697" s="39"/>
+      <c r="J697" s="39"/>
+      <c r="K697" s="39"/>
+      <c r="L697" s="39"/>
+      <c r="M697" s="39"/>
+      <c r="N697" s="39"/>
+      <c r="O697" s="39"/>
+      <c r="P697" s="39"/>
+      <c r="Q697" s="39"/>
+      <c r="R697" s="39"/>
+      <c r="S697" s="39"/>
+      <c r="T697" s="39"/>
     </row>
     <row r="698" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A698" s="29" t="s">
+      <c r="A698" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="B698" s="30"/>
-      <c r="C698" s="30"/>
-      <c r="D698" s="30"/>
-      <c r="E698" s="30"/>
-      <c r="F698" s="30"/>
-      <c r="G698" s="30"/>
-      <c r="H698" s="30"/>
-      <c r="I698" s="30"/>
-      <c r="J698" s="30"/>
-      <c r="K698" s="30"/>
-      <c r="L698" s="30"/>
-      <c r="M698" s="30"/>
-      <c r="N698" s="30"/>
-      <c r="O698" s="30"/>
-      <c r="P698" s="30"/>
-      <c r="Q698" s="30"/>
-      <c r="R698" s="30"/>
-      <c r="S698" s="30"/>
-      <c r="T698" s="30"/>
+      <c r="B698" s="39"/>
+      <c r="C698" s="39"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="39"/>
+      <c r="F698" s="39"/>
+      <c r="G698" s="39"/>
+      <c r="H698" s="39"/>
+      <c r="I698" s="39"/>
+      <c r="J698" s="39"/>
+      <c r="K698" s="39"/>
+      <c r="L698" s="39"/>
+      <c r="M698" s="39"/>
+      <c r="N698" s="39"/>
+      <c r="O698" s="39"/>
+      <c r="P698" s="39"/>
+      <c r="Q698" s="39"/>
+      <c r="R698" s="39"/>
+      <c r="S698" s="39"/>
+      <c r="T698" s="39"/>
     </row>
     <row r="699" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A699" s="30"/>
-      <c r="B699" s="30"/>
-      <c r="C699" s="30"/>
-      <c r="D699" s="30"/>
-      <c r="E699" s="30"/>
-      <c r="F699" s="30"/>
-      <c r="G699" s="30"/>
-      <c r="H699" s="30"/>
-      <c r="I699" s="30"/>
-      <c r="J699" s="30"/>
-      <c r="K699" s="30"/>
-      <c r="L699" s="30"/>
-      <c r="M699" s="30"/>
-      <c r="N699" s="30"/>
-      <c r="O699" s="30"/>
-      <c r="P699" s="30"/>
-      <c r="Q699" s="30"/>
-      <c r="R699" s="30"/>
-      <c r="S699" s="30"/>
-      <c r="T699" s="30"/>
+      <c r="A699" s="39"/>
+      <c r="B699" s="39"/>
+      <c r="C699" s="39"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="39"/>
+      <c r="F699" s="39"/>
+      <c r="G699" s="39"/>
+      <c r="H699" s="39"/>
+      <c r="I699" s="39"/>
+      <c r="J699" s="39"/>
+      <c r="K699" s="39"/>
+      <c r="L699" s="39"/>
+      <c r="M699" s="39"/>
+      <c r="N699" s="39"/>
+      <c r="O699" s="39"/>
+      <c r="P699" s="39"/>
+      <c r="Q699" s="39"/>
+      <c r="R699" s="39"/>
+      <c r="S699" s="39"/>
+      <c r="T699" s="39"/>
     </row>
     <row r="700" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
@@ -41796,74 +41787,74 @@
       <c r="T734" s="23"/>
     </row>
     <row r="735" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A735" s="29" t="s">
+      <c r="A735" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B735" s="30"/>
-      <c r="C735" s="30"/>
-      <c r="D735" s="30"/>
-      <c r="E735" s="30"/>
-      <c r="F735" s="30"/>
-      <c r="G735" s="30"/>
-      <c r="H735" s="30"/>
-      <c r="I735" s="30"/>
-      <c r="J735" s="30"/>
-      <c r="K735" s="30"/>
-      <c r="L735" s="30"/>
-      <c r="M735" s="30"/>
-      <c r="N735" s="30"/>
-      <c r="O735" s="30"/>
-      <c r="P735" s="30"/>
-      <c r="Q735" s="30"/>
-      <c r="R735" s="30"/>
-      <c r="S735" s="30"/>
-      <c r="T735" s="30"/>
+      <c r="B735" s="39"/>
+      <c r="C735" s="39"/>
+      <c r="D735" s="39"/>
+      <c r="E735" s="39"/>
+      <c r="F735" s="39"/>
+      <c r="G735" s="39"/>
+      <c r="H735" s="39"/>
+      <c r="I735" s="39"/>
+      <c r="J735" s="39"/>
+      <c r="K735" s="39"/>
+      <c r="L735" s="39"/>
+      <c r="M735" s="39"/>
+      <c r="N735" s="39"/>
+      <c r="O735" s="39"/>
+      <c r="P735" s="39"/>
+      <c r="Q735" s="39"/>
+      <c r="R735" s="39"/>
+      <c r="S735" s="39"/>
+      <c r="T735" s="39"/>
     </row>
     <row r="736" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A736" s="29" t="s">
+      <c r="A736" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B736" s="30"/>
-      <c r="C736" s="30"/>
-      <c r="D736" s="30"/>
-      <c r="E736" s="30"/>
-      <c r="F736" s="30"/>
-      <c r="G736" s="30"/>
-      <c r="H736" s="30"/>
-      <c r="I736" s="30"/>
-      <c r="J736" s="30"/>
-      <c r="K736" s="30"/>
-      <c r="L736" s="30"/>
-      <c r="M736" s="30"/>
-      <c r="N736" s="30"/>
-      <c r="O736" s="30"/>
-      <c r="P736" s="30"/>
-      <c r="Q736" s="30"/>
-      <c r="R736" s="30"/>
-      <c r="S736" s="30"/>
-      <c r="T736" s="30"/>
+      <c r="B736" s="39"/>
+      <c r="C736" s="39"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="39"/>
+      <c r="F736" s="39"/>
+      <c r="G736" s="39"/>
+      <c r="H736" s="39"/>
+      <c r="I736" s="39"/>
+      <c r="J736" s="39"/>
+      <c r="K736" s="39"/>
+      <c r="L736" s="39"/>
+      <c r="M736" s="39"/>
+      <c r="N736" s="39"/>
+      <c r="O736" s="39"/>
+      <c r="P736" s="39"/>
+      <c r="Q736" s="39"/>
+      <c r="R736" s="39"/>
+      <c r="S736" s="39"/>
+      <c r="T736" s="39"/>
     </row>
     <row r="737" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A737" s="30"/>
-      <c r="B737" s="30"/>
-      <c r="C737" s="30"/>
-      <c r="D737" s="30"/>
-      <c r="E737" s="30"/>
-      <c r="F737" s="30"/>
-      <c r="G737" s="30"/>
-      <c r="H737" s="30"/>
-      <c r="I737" s="30"/>
-      <c r="J737" s="30"/>
-      <c r="K737" s="30"/>
-      <c r="L737" s="30"/>
-      <c r="M737" s="30"/>
-      <c r="N737" s="30"/>
-      <c r="O737" s="30"/>
-      <c r="P737" s="30"/>
-      <c r="Q737" s="30"/>
-      <c r="R737" s="30"/>
-      <c r="S737" s="30"/>
-      <c r="T737" s="30"/>
+      <c r="A737" s="39"/>
+      <c r="B737" s="39"/>
+      <c r="C737" s="39"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="39"/>
+      <c r="F737" s="39"/>
+      <c r="G737" s="39"/>
+      <c r="H737" s="39"/>
+      <c r="I737" s="39"/>
+      <c r="J737" s="39"/>
+      <c r="K737" s="39"/>
+      <c r="L737" s="39"/>
+      <c r="M737" s="39"/>
+      <c r="N737" s="39"/>
+      <c r="O737" s="39"/>
+      <c r="P737" s="39"/>
+      <c r="Q737" s="39"/>
+      <c r="R737" s="39"/>
+      <c r="S737" s="39"/>
+      <c r="T737" s="39"/>
     </row>
     <row r="738" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
@@ -42516,74 +42507,74 @@
       <c r="T752" s="23"/>
     </row>
     <row r="753" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A753" s="29" t="s">
+      <c r="A753" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B753" s="30"/>
-      <c r="C753" s="30"/>
-      <c r="D753" s="30"/>
-      <c r="E753" s="30"/>
-      <c r="F753" s="30"/>
-      <c r="G753" s="30"/>
-      <c r="H753" s="30"/>
-      <c r="I753" s="30"/>
-      <c r="J753" s="30"/>
-      <c r="K753" s="30"/>
-      <c r="L753" s="30"/>
-      <c r="M753" s="30"/>
-      <c r="N753" s="30"/>
-      <c r="O753" s="30"/>
-      <c r="P753" s="30"/>
-      <c r="Q753" s="30"/>
-      <c r="R753" s="30"/>
-      <c r="S753" s="30"/>
-      <c r="T753" s="30"/>
+      <c r="B753" s="39"/>
+      <c r="C753" s="39"/>
+      <c r="D753" s="39"/>
+      <c r="E753" s="39"/>
+      <c r="F753" s="39"/>
+      <c r="G753" s="39"/>
+      <c r="H753" s="39"/>
+      <c r="I753" s="39"/>
+      <c r="J753" s="39"/>
+      <c r="K753" s="39"/>
+      <c r="L753" s="39"/>
+      <c r="M753" s="39"/>
+      <c r="N753" s="39"/>
+      <c r="O753" s="39"/>
+      <c r="P753" s="39"/>
+      <c r="Q753" s="39"/>
+      <c r="R753" s="39"/>
+      <c r="S753" s="39"/>
+      <c r="T753" s="39"/>
     </row>
     <row r="754" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A754" s="29" t="s">
+      <c r="A754" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B754" s="30"/>
-      <c r="C754" s="30"/>
-      <c r="D754" s="30"/>
-      <c r="E754" s="30"/>
-      <c r="F754" s="30"/>
-      <c r="G754" s="30"/>
-      <c r="H754" s="30"/>
-      <c r="I754" s="30"/>
-      <c r="J754" s="30"/>
-      <c r="K754" s="30"/>
-      <c r="L754" s="30"/>
-      <c r="M754" s="30"/>
-      <c r="N754" s="30"/>
-      <c r="O754" s="30"/>
-      <c r="P754" s="30"/>
-      <c r="Q754" s="30"/>
-      <c r="R754" s="30"/>
-      <c r="S754" s="30"/>
-      <c r="T754" s="30"/>
+      <c r="B754" s="39"/>
+      <c r="C754" s="39"/>
+      <c r="D754" s="39"/>
+      <c r="E754" s="39"/>
+      <c r="F754" s="39"/>
+      <c r="G754" s="39"/>
+      <c r="H754" s="39"/>
+      <c r="I754" s="39"/>
+      <c r="J754" s="39"/>
+      <c r="K754" s="39"/>
+      <c r="L754" s="39"/>
+      <c r="M754" s="39"/>
+      <c r="N754" s="39"/>
+      <c r="O754" s="39"/>
+      <c r="P754" s="39"/>
+      <c r="Q754" s="39"/>
+      <c r="R754" s="39"/>
+      <c r="S754" s="39"/>
+      <c r="T754" s="39"/>
     </row>
     <row r="755" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A755" s="30"/>
-      <c r="B755" s="30"/>
-      <c r="C755" s="30"/>
-      <c r="D755" s="30"/>
-      <c r="E755" s="30"/>
-      <c r="F755" s="30"/>
-      <c r="G755" s="30"/>
-      <c r="H755" s="30"/>
-      <c r="I755" s="30"/>
-      <c r="J755" s="30"/>
-      <c r="K755" s="30"/>
-      <c r="L755" s="30"/>
-      <c r="M755" s="30"/>
-      <c r="N755" s="30"/>
-      <c r="O755" s="30"/>
-      <c r="P755" s="30"/>
-      <c r="Q755" s="30"/>
-      <c r="R755" s="30"/>
-      <c r="S755" s="30"/>
-      <c r="T755" s="30"/>
+      <c r="A755" s="39"/>
+      <c r="B755" s="39"/>
+      <c r="C755" s="39"/>
+      <c r="D755" s="39"/>
+      <c r="E755" s="39"/>
+      <c r="F755" s="39"/>
+      <c r="G755" s="39"/>
+      <c r="H755" s="39"/>
+      <c r="I755" s="39"/>
+      <c r="J755" s="39"/>
+      <c r="K755" s="39"/>
+      <c r="L755" s="39"/>
+      <c r="M755" s="39"/>
+      <c r="N755" s="39"/>
+      <c r="O755" s="39"/>
+      <c r="P755" s="39"/>
+      <c r="Q755" s="39"/>
+      <c r="R755" s="39"/>
+      <c r="S755" s="39"/>
+      <c r="T755" s="39"/>
     </row>
     <row r="756" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
@@ -44010,74 +44001,74 @@
       </c>
     </row>
     <row r="779" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A779" s="29" t="s">
+      <c r="A779" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B779" s="30"/>
-      <c r="C779" s="30"/>
-      <c r="D779" s="30"/>
-      <c r="E779" s="30"/>
-      <c r="F779" s="30"/>
-      <c r="G779" s="30"/>
-      <c r="H779" s="30"/>
-      <c r="I779" s="30"/>
-      <c r="J779" s="30"/>
-      <c r="K779" s="30"/>
-      <c r="L779" s="30"/>
-      <c r="M779" s="30"/>
-      <c r="N779" s="30"/>
-      <c r="O779" s="30"/>
-      <c r="P779" s="30"/>
-      <c r="Q779" s="30"/>
-      <c r="R779" s="30"/>
-      <c r="S779" s="30"/>
-      <c r="T779" s="30"/>
+      <c r="B779" s="39"/>
+      <c r="C779" s="39"/>
+      <c r="D779" s="39"/>
+      <c r="E779" s="39"/>
+      <c r="F779" s="39"/>
+      <c r="G779" s="39"/>
+      <c r="H779" s="39"/>
+      <c r="I779" s="39"/>
+      <c r="J779" s="39"/>
+      <c r="K779" s="39"/>
+      <c r="L779" s="39"/>
+      <c r="M779" s="39"/>
+      <c r="N779" s="39"/>
+      <c r="O779" s="39"/>
+      <c r="P779" s="39"/>
+      <c r="Q779" s="39"/>
+      <c r="R779" s="39"/>
+      <c r="S779" s="39"/>
+      <c r="T779" s="39"/>
     </row>
     <row r="780" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A780" s="29" t="s">
+      <c r="A780" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B780" s="30"/>
-      <c r="C780" s="30"/>
-      <c r="D780" s="30"/>
-      <c r="E780" s="30"/>
-      <c r="F780" s="30"/>
-      <c r="G780" s="30"/>
-      <c r="H780" s="30"/>
-      <c r="I780" s="30"/>
-      <c r="J780" s="30"/>
-      <c r="K780" s="30"/>
-      <c r="L780" s="30"/>
-      <c r="M780" s="30"/>
-      <c r="N780" s="30"/>
-      <c r="O780" s="30"/>
-      <c r="P780" s="30"/>
-      <c r="Q780" s="30"/>
-      <c r="R780" s="30"/>
-      <c r="S780" s="30"/>
-      <c r="T780" s="30"/>
+      <c r="B780" s="39"/>
+      <c r="C780" s="39"/>
+      <c r="D780" s="39"/>
+      <c r="E780" s="39"/>
+      <c r="F780" s="39"/>
+      <c r="G780" s="39"/>
+      <c r="H780" s="39"/>
+      <c r="I780" s="39"/>
+      <c r="J780" s="39"/>
+      <c r="K780" s="39"/>
+      <c r="L780" s="39"/>
+      <c r="M780" s="39"/>
+      <c r="N780" s="39"/>
+      <c r="O780" s="39"/>
+      <c r="P780" s="39"/>
+      <c r="Q780" s="39"/>
+      <c r="R780" s="39"/>
+      <c r="S780" s="39"/>
+      <c r="T780" s="39"/>
     </row>
     <row r="781" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A781" s="30"/>
-      <c r="B781" s="30"/>
-      <c r="C781" s="30"/>
-      <c r="D781" s="30"/>
-      <c r="E781" s="30"/>
-      <c r="F781" s="30"/>
-      <c r="G781" s="30"/>
-      <c r="H781" s="30"/>
-      <c r="I781" s="30"/>
-      <c r="J781" s="30"/>
-      <c r="K781" s="30"/>
-      <c r="L781" s="30"/>
-      <c r="M781" s="30"/>
-      <c r="N781" s="30"/>
-      <c r="O781" s="30"/>
-      <c r="P781" s="30"/>
-      <c r="Q781" s="30"/>
-      <c r="R781" s="30"/>
-      <c r="S781" s="30"/>
-      <c r="T781" s="30"/>
+      <c r="A781" s="39"/>
+      <c r="B781" s="39"/>
+      <c r="C781" s="39"/>
+      <c r="D781" s="39"/>
+      <c r="E781" s="39"/>
+      <c r="F781" s="39"/>
+      <c r="G781" s="39"/>
+      <c r="H781" s="39"/>
+      <c r="I781" s="39"/>
+      <c r="J781" s="39"/>
+      <c r="K781" s="39"/>
+      <c r="L781" s="39"/>
+      <c r="M781" s="39"/>
+      <c r="N781" s="39"/>
+      <c r="O781" s="39"/>
+      <c r="P781" s="39"/>
+      <c r="Q781" s="39"/>
+      <c r="R781" s="39"/>
+      <c r="S781" s="39"/>
+      <c r="T781" s="39"/>
     </row>
     <row r="782" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
@@ -46296,74 +46287,74 @@
       </c>
     </row>
     <row r="818" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A818" s="29" t="s">
+      <c r="A818" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B818" s="30"/>
-      <c r="C818" s="30"/>
-      <c r="D818" s="30"/>
-      <c r="E818" s="30"/>
-      <c r="F818" s="30"/>
-      <c r="G818" s="30"/>
-      <c r="H818" s="30"/>
-      <c r="I818" s="30"/>
-      <c r="J818" s="30"/>
-      <c r="K818" s="30"/>
-      <c r="L818" s="30"/>
-      <c r="M818" s="30"/>
-      <c r="N818" s="30"/>
-      <c r="O818" s="30"/>
-      <c r="P818" s="30"/>
-      <c r="Q818" s="30"/>
-      <c r="R818" s="30"/>
-      <c r="S818" s="30"/>
-      <c r="T818" s="30"/>
+      <c r="B818" s="39"/>
+      <c r="C818" s="39"/>
+      <c r="D818" s="39"/>
+      <c r="E818" s="39"/>
+      <c r="F818" s="39"/>
+      <c r="G818" s="39"/>
+      <c r="H818" s="39"/>
+      <c r="I818" s="39"/>
+      <c r="J818" s="39"/>
+      <c r="K818" s="39"/>
+      <c r="L818" s="39"/>
+      <c r="M818" s="39"/>
+      <c r="N818" s="39"/>
+      <c r="O818" s="39"/>
+      <c r="P818" s="39"/>
+      <c r="Q818" s="39"/>
+      <c r="R818" s="39"/>
+      <c r="S818" s="39"/>
+      <c r="T818" s="39"/>
     </row>
     <row r="819" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A819" s="29" t="s">
+      <c r="A819" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B819" s="30"/>
-      <c r="C819" s="30"/>
-      <c r="D819" s="30"/>
-      <c r="E819" s="30"/>
-      <c r="F819" s="30"/>
-      <c r="G819" s="30"/>
-      <c r="H819" s="30"/>
-      <c r="I819" s="30"/>
-      <c r="J819" s="30"/>
-      <c r="K819" s="30"/>
-      <c r="L819" s="30"/>
-      <c r="M819" s="30"/>
-      <c r="N819" s="30"/>
-      <c r="O819" s="30"/>
-      <c r="P819" s="30"/>
-      <c r="Q819" s="30"/>
-      <c r="R819" s="30"/>
-      <c r="S819" s="30"/>
-      <c r="T819" s="30"/>
+      <c r="B819" s="39"/>
+      <c r="C819" s="39"/>
+      <c r="D819" s="39"/>
+      <c r="E819" s="39"/>
+      <c r="F819" s="39"/>
+      <c r="G819" s="39"/>
+      <c r="H819" s="39"/>
+      <c r="I819" s="39"/>
+      <c r="J819" s="39"/>
+      <c r="K819" s="39"/>
+      <c r="L819" s="39"/>
+      <c r="M819" s="39"/>
+      <c r="N819" s="39"/>
+      <c r="O819" s="39"/>
+      <c r="P819" s="39"/>
+      <c r="Q819" s="39"/>
+      <c r="R819" s="39"/>
+      <c r="S819" s="39"/>
+      <c r="T819" s="39"/>
     </row>
     <row r="820" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A820" s="30"/>
-      <c r="B820" s="30"/>
-      <c r="C820" s="30"/>
-      <c r="D820" s="30"/>
-      <c r="E820" s="30"/>
-      <c r="F820" s="30"/>
-      <c r="G820" s="30"/>
-      <c r="H820" s="30"/>
-      <c r="I820" s="30"/>
-      <c r="J820" s="30"/>
-      <c r="K820" s="30"/>
-      <c r="L820" s="30"/>
-      <c r="M820" s="30"/>
-      <c r="N820" s="30"/>
-      <c r="O820" s="30"/>
-      <c r="P820" s="30"/>
-      <c r="Q820" s="30"/>
-      <c r="R820" s="30"/>
-      <c r="S820" s="30"/>
-      <c r="T820" s="30"/>
+      <c r="A820" s="39"/>
+      <c r="B820" s="39"/>
+      <c r="C820" s="39"/>
+      <c r="D820" s="39"/>
+      <c r="E820" s="39"/>
+      <c r="F820" s="39"/>
+      <c r="G820" s="39"/>
+      <c r="H820" s="39"/>
+      <c r="I820" s="39"/>
+      <c r="J820" s="39"/>
+      <c r="K820" s="39"/>
+      <c r="L820" s="39"/>
+      <c r="M820" s="39"/>
+      <c r="N820" s="39"/>
+      <c r="O820" s="39"/>
+      <c r="P820" s="39"/>
+      <c r="Q820" s="39"/>
+      <c r="R820" s="39"/>
+      <c r="S820" s="39"/>
+      <c r="T820" s="39"/>
     </row>
     <row r="821" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
@@ -47328,74 +47319,74 @@
       </c>
     </row>
     <row r="837" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A837" s="29" t="s">
+      <c r="A837" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B837" s="30"/>
-      <c r="C837" s="30"/>
-      <c r="D837" s="30"/>
-      <c r="E837" s="30"/>
-      <c r="F837" s="30"/>
-      <c r="G837" s="30"/>
-      <c r="H837" s="30"/>
-      <c r="I837" s="30"/>
-      <c r="J837" s="30"/>
-      <c r="K837" s="30"/>
-      <c r="L837" s="30"/>
-      <c r="M837" s="30"/>
-      <c r="N837" s="30"/>
-      <c r="O837" s="30"/>
-      <c r="P837" s="30"/>
-      <c r="Q837" s="30"/>
-      <c r="R837" s="30"/>
-      <c r="S837" s="30"/>
-      <c r="T837" s="30"/>
+      <c r="B837" s="39"/>
+      <c r="C837" s="39"/>
+      <c r="D837" s="39"/>
+      <c r="E837" s="39"/>
+      <c r="F837" s="39"/>
+      <c r="G837" s="39"/>
+      <c r="H837" s="39"/>
+      <c r="I837" s="39"/>
+      <c r="J837" s="39"/>
+      <c r="K837" s="39"/>
+      <c r="L837" s="39"/>
+      <c r="M837" s="39"/>
+      <c r="N837" s="39"/>
+      <c r="O837" s="39"/>
+      <c r="P837" s="39"/>
+      <c r="Q837" s="39"/>
+      <c r="R837" s="39"/>
+      <c r="S837" s="39"/>
+      <c r="T837" s="39"/>
     </row>
     <row r="838" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A838" s="29" t="s">
+      <c r="A838" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B838" s="30"/>
-      <c r="C838" s="30"/>
-      <c r="D838" s="30"/>
-      <c r="E838" s="30"/>
-      <c r="F838" s="30"/>
-      <c r="G838" s="30"/>
-      <c r="H838" s="30"/>
-      <c r="I838" s="30"/>
-      <c r="J838" s="30"/>
-      <c r="K838" s="30"/>
-      <c r="L838" s="30"/>
-      <c r="M838" s="30"/>
-      <c r="N838" s="30"/>
-      <c r="O838" s="30"/>
-      <c r="P838" s="30"/>
-      <c r="Q838" s="30"/>
-      <c r="R838" s="30"/>
-      <c r="S838" s="30"/>
-      <c r="T838" s="30"/>
+      <c r="B838" s="39"/>
+      <c r="C838" s="39"/>
+      <c r="D838" s="39"/>
+      <c r="E838" s="39"/>
+      <c r="F838" s="39"/>
+      <c r="G838" s="39"/>
+      <c r="H838" s="39"/>
+      <c r="I838" s="39"/>
+      <c r="J838" s="39"/>
+      <c r="K838" s="39"/>
+      <c r="L838" s="39"/>
+      <c r="M838" s="39"/>
+      <c r="N838" s="39"/>
+      <c r="O838" s="39"/>
+      <c r="P838" s="39"/>
+      <c r="Q838" s="39"/>
+      <c r="R838" s="39"/>
+      <c r="S838" s="39"/>
+      <c r="T838" s="39"/>
     </row>
     <row r="839" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A839" s="30"/>
-      <c r="B839" s="30"/>
-      <c r="C839" s="30"/>
-      <c r="D839" s="30"/>
-      <c r="E839" s="30"/>
-      <c r="F839" s="30"/>
-      <c r="G839" s="30"/>
-      <c r="H839" s="30"/>
-      <c r="I839" s="30"/>
-      <c r="J839" s="30"/>
-      <c r="K839" s="30"/>
-      <c r="L839" s="30"/>
-      <c r="M839" s="30"/>
-      <c r="N839" s="30"/>
-      <c r="O839" s="30"/>
-      <c r="P839" s="30"/>
-      <c r="Q839" s="30"/>
-      <c r="R839" s="30"/>
-      <c r="S839" s="30"/>
-      <c r="T839" s="30"/>
+      <c r="A839" s="39"/>
+      <c r="B839" s="39"/>
+      <c r="C839" s="39"/>
+      <c r="D839" s="39"/>
+      <c r="E839" s="39"/>
+      <c r="F839" s="39"/>
+      <c r="G839" s="39"/>
+      <c r="H839" s="39"/>
+      <c r="I839" s="39"/>
+      <c r="J839" s="39"/>
+      <c r="K839" s="39"/>
+      <c r="L839" s="39"/>
+      <c r="M839" s="39"/>
+      <c r="N839" s="39"/>
+      <c r="O839" s="39"/>
+      <c r="P839" s="39"/>
+      <c r="Q839" s="39"/>
+      <c r="R839" s="39"/>
+      <c r="S839" s="39"/>
+      <c r="T839" s="39"/>
     </row>
     <row r="840" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
@@ -48822,74 +48813,74 @@
       </c>
     </row>
     <row r="863" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A863" s="29" t="s">
+      <c r="A863" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B863" s="30"/>
-      <c r="C863" s="30"/>
-      <c r="D863" s="30"/>
-      <c r="E863" s="30"/>
-      <c r="F863" s="30"/>
-      <c r="G863" s="30"/>
-      <c r="H863" s="30"/>
-      <c r="I863" s="30"/>
-      <c r="J863" s="30"/>
-      <c r="K863" s="30"/>
-      <c r="L863" s="30"/>
-      <c r="M863" s="30"/>
-      <c r="N863" s="30"/>
-      <c r="O863" s="30"/>
-      <c r="P863" s="30"/>
-      <c r="Q863" s="30"/>
-      <c r="R863" s="30"/>
-      <c r="S863" s="30"/>
-      <c r="T863" s="30"/>
+      <c r="B863" s="39"/>
+      <c r="C863" s="39"/>
+      <c r="D863" s="39"/>
+      <c r="E863" s="39"/>
+      <c r="F863" s="39"/>
+      <c r="G863" s="39"/>
+      <c r="H863" s="39"/>
+      <c r="I863" s="39"/>
+      <c r="J863" s="39"/>
+      <c r="K863" s="39"/>
+      <c r="L863" s="39"/>
+      <c r="M863" s="39"/>
+      <c r="N863" s="39"/>
+      <c r="O863" s="39"/>
+      <c r="P863" s="39"/>
+      <c r="Q863" s="39"/>
+      <c r="R863" s="39"/>
+      <c r="S863" s="39"/>
+      <c r="T863" s="39"/>
     </row>
     <row r="864" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A864" s="29" t="s">
+      <c r="A864" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B864" s="30"/>
-      <c r="C864" s="30"/>
-      <c r="D864" s="30"/>
-      <c r="E864" s="30"/>
-      <c r="F864" s="30"/>
-      <c r="G864" s="30"/>
-      <c r="H864" s="30"/>
-      <c r="I864" s="30"/>
-      <c r="J864" s="30"/>
-      <c r="K864" s="30"/>
-      <c r="L864" s="30"/>
-      <c r="M864" s="30"/>
-      <c r="N864" s="30"/>
-      <c r="O864" s="30"/>
-      <c r="P864" s="30"/>
-      <c r="Q864" s="30"/>
-      <c r="R864" s="30"/>
-      <c r="S864" s="30"/>
-      <c r="T864" s="30"/>
+      <c r="B864" s="39"/>
+      <c r="C864" s="39"/>
+      <c r="D864" s="39"/>
+      <c r="E864" s="39"/>
+      <c r="F864" s="39"/>
+      <c r="G864" s="39"/>
+      <c r="H864" s="39"/>
+      <c r="I864" s="39"/>
+      <c r="J864" s="39"/>
+      <c r="K864" s="39"/>
+      <c r="L864" s="39"/>
+      <c r="M864" s="39"/>
+      <c r="N864" s="39"/>
+      <c r="O864" s="39"/>
+      <c r="P864" s="39"/>
+      <c r="Q864" s="39"/>
+      <c r="R864" s="39"/>
+      <c r="S864" s="39"/>
+      <c r="T864" s="39"/>
     </row>
     <row r="865" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A865" s="30"/>
-      <c r="B865" s="30"/>
-      <c r="C865" s="30"/>
-      <c r="D865" s="30"/>
-      <c r="E865" s="30"/>
-      <c r="F865" s="30"/>
-      <c r="G865" s="30"/>
-      <c r="H865" s="30"/>
-      <c r="I865" s="30"/>
-      <c r="J865" s="30"/>
-      <c r="K865" s="30"/>
-      <c r="L865" s="30"/>
-      <c r="M865" s="30"/>
-      <c r="N865" s="30"/>
-      <c r="O865" s="30"/>
-      <c r="P865" s="30"/>
-      <c r="Q865" s="30"/>
-      <c r="R865" s="30"/>
-      <c r="S865" s="30"/>
-      <c r="T865" s="30"/>
+      <c r="A865" s="39"/>
+      <c r="B865" s="39"/>
+      <c r="C865" s="39"/>
+      <c r="D865" s="39"/>
+      <c r="E865" s="39"/>
+      <c r="F865" s="39"/>
+      <c r="G865" s="39"/>
+      <c r="H865" s="39"/>
+      <c r="I865" s="39"/>
+      <c r="J865" s="39"/>
+      <c r="K865" s="39"/>
+      <c r="L865" s="39"/>
+      <c r="M865" s="39"/>
+      <c r="N865" s="39"/>
+      <c r="O865" s="39"/>
+      <c r="P865" s="39"/>
+      <c r="Q865" s="39"/>
+      <c r="R865" s="39"/>
+      <c r="S865" s="39"/>
+      <c r="T865" s="39"/>
     </row>
     <row r="866" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
@@ -51126,74 +51117,74 @@
       </c>
     </row>
     <row r="903" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A903" s="29" t="s">
+      <c r="A903" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B903" s="30"/>
-      <c r="C903" s="30"/>
-      <c r="D903" s="30"/>
-      <c r="E903" s="30"/>
-      <c r="F903" s="30"/>
-      <c r="G903" s="30"/>
-      <c r="H903" s="30"/>
-      <c r="I903" s="30"/>
-      <c r="J903" s="30"/>
-      <c r="K903" s="30"/>
-      <c r="L903" s="30"/>
-      <c r="M903" s="30"/>
-      <c r="N903" s="30"/>
-      <c r="O903" s="30"/>
-      <c r="P903" s="30"/>
-      <c r="Q903" s="30"/>
-      <c r="R903" s="30"/>
-      <c r="S903" s="30"/>
-      <c r="T903" s="30"/>
+      <c r="B903" s="39"/>
+      <c r="C903" s="39"/>
+      <c r="D903" s="39"/>
+      <c r="E903" s="39"/>
+      <c r="F903" s="39"/>
+      <c r="G903" s="39"/>
+      <c r="H903" s="39"/>
+      <c r="I903" s="39"/>
+      <c r="J903" s="39"/>
+      <c r="K903" s="39"/>
+      <c r="L903" s="39"/>
+      <c r="M903" s="39"/>
+      <c r="N903" s="39"/>
+      <c r="O903" s="39"/>
+      <c r="P903" s="39"/>
+      <c r="Q903" s="39"/>
+      <c r="R903" s="39"/>
+      <c r="S903" s="39"/>
+      <c r="T903" s="39"/>
     </row>
     <row r="904" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A904" s="29" t="s">
+      <c r="A904" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B904" s="30"/>
-      <c r="C904" s="30"/>
-      <c r="D904" s="30"/>
-      <c r="E904" s="30"/>
-      <c r="F904" s="30"/>
-      <c r="G904" s="30"/>
-      <c r="H904" s="30"/>
-      <c r="I904" s="30"/>
-      <c r="J904" s="30"/>
-      <c r="K904" s="30"/>
-      <c r="L904" s="30"/>
-      <c r="M904" s="30"/>
-      <c r="N904" s="30"/>
-      <c r="O904" s="30"/>
-      <c r="P904" s="30"/>
-      <c r="Q904" s="30"/>
-      <c r="R904" s="30"/>
-      <c r="S904" s="30"/>
-      <c r="T904" s="30"/>
+      <c r="B904" s="39"/>
+      <c r="C904" s="39"/>
+      <c r="D904" s="39"/>
+      <c r="E904" s="39"/>
+      <c r="F904" s="39"/>
+      <c r="G904" s="39"/>
+      <c r="H904" s="39"/>
+      <c r="I904" s="39"/>
+      <c r="J904" s="39"/>
+      <c r="K904" s="39"/>
+      <c r="L904" s="39"/>
+      <c r="M904" s="39"/>
+      <c r="N904" s="39"/>
+      <c r="O904" s="39"/>
+      <c r="P904" s="39"/>
+      <c r="Q904" s="39"/>
+      <c r="R904" s="39"/>
+      <c r="S904" s="39"/>
+      <c r="T904" s="39"/>
     </row>
     <row r="905" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A905" s="30"/>
-      <c r="B905" s="30"/>
-      <c r="C905" s="30"/>
-      <c r="D905" s="30"/>
-      <c r="E905" s="30"/>
-      <c r="F905" s="30"/>
-      <c r="G905" s="30"/>
-      <c r="H905" s="30"/>
-      <c r="I905" s="30"/>
-      <c r="J905" s="30"/>
-      <c r="K905" s="30"/>
-      <c r="L905" s="30"/>
-      <c r="M905" s="30"/>
-      <c r="N905" s="30"/>
-      <c r="O905" s="30"/>
-      <c r="P905" s="30"/>
-      <c r="Q905" s="30"/>
-      <c r="R905" s="30"/>
-      <c r="S905" s="30"/>
-      <c r="T905" s="30"/>
+      <c r="A905" s="39"/>
+      <c r="B905" s="39"/>
+      <c r="C905" s="39"/>
+      <c r="D905" s="39"/>
+      <c r="E905" s="39"/>
+      <c r="F905" s="39"/>
+      <c r="G905" s="39"/>
+      <c r="H905" s="39"/>
+      <c r="I905" s="39"/>
+      <c r="J905" s="39"/>
+      <c r="K905" s="39"/>
+      <c r="L905" s="39"/>
+      <c r="M905" s="39"/>
+      <c r="N905" s="39"/>
+      <c r="O905" s="39"/>
+      <c r="P905" s="39"/>
+      <c r="Q905" s="39"/>
+      <c r="R905" s="39"/>
+      <c r="S905" s="39"/>
+      <c r="T905" s="39"/>
     </row>
     <row r="906" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
@@ -52130,74 +52121,74 @@
       <c r="T921" s="23"/>
     </row>
     <row r="922" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A922" s="29" t="s">
+      <c r="A922" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B922" s="30"/>
-      <c r="C922" s="30"/>
-      <c r="D922" s="30"/>
-      <c r="E922" s="30"/>
-      <c r="F922" s="30"/>
-      <c r="G922" s="30"/>
-      <c r="H922" s="30"/>
-      <c r="I922" s="30"/>
-      <c r="J922" s="30"/>
-      <c r="K922" s="30"/>
-      <c r="L922" s="30"/>
-      <c r="M922" s="30"/>
-      <c r="N922" s="30"/>
-      <c r="O922" s="30"/>
-      <c r="P922" s="30"/>
-      <c r="Q922" s="30"/>
-      <c r="R922" s="30"/>
-      <c r="S922" s="30"/>
-      <c r="T922" s="30"/>
+      <c r="B922" s="39"/>
+      <c r="C922" s="39"/>
+      <c r="D922" s="39"/>
+      <c r="E922" s="39"/>
+      <c r="F922" s="39"/>
+      <c r="G922" s="39"/>
+      <c r="H922" s="39"/>
+      <c r="I922" s="39"/>
+      <c r="J922" s="39"/>
+      <c r="K922" s="39"/>
+      <c r="L922" s="39"/>
+      <c r="M922" s="39"/>
+      <c r="N922" s="39"/>
+      <c r="O922" s="39"/>
+      <c r="P922" s="39"/>
+      <c r="Q922" s="39"/>
+      <c r="R922" s="39"/>
+      <c r="S922" s="39"/>
+      <c r="T922" s="39"/>
     </row>
     <row r="923" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A923" s="29" t="s">
+      <c r="A923" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="B923" s="30"/>
-      <c r="C923" s="30"/>
-      <c r="D923" s="30"/>
-      <c r="E923" s="30"/>
-      <c r="F923" s="30"/>
-      <c r="G923" s="30"/>
-      <c r="H923" s="30"/>
-      <c r="I923" s="30"/>
-      <c r="J923" s="30"/>
-      <c r="K923" s="30"/>
-      <c r="L923" s="30"/>
-      <c r="M923" s="30"/>
-      <c r="N923" s="30"/>
-      <c r="O923" s="30"/>
-      <c r="P923" s="30"/>
-      <c r="Q923" s="30"/>
-      <c r="R923" s="30"/>
-      <c r="S923" s="30"/>
-      <c r="T923" s="30"/>
+      <c r="B923" s="39"/>
+      <c r="C923" s="39"/>
+      <c r="D923" s="39"/>
+      <c r="E923" s="39"/>
+      <c r="F923" s="39"/>
+      <c r="G923" s="39"/>
+      <c r="H923" s="39"/>
+      <c r="I923" s="39"/>
+      <c r="J923" s="39"/>
+      <c r="K923" s="39"/>
+      <c r="L923" s="39"/>
+      <c r="M923" s="39"/>
+      <c r="N923" s="39"/>
+      <c r="O923" s="39"/>
+      <c r="P923" s="39"/>
+      <c r="Q923" s="39"/>
+      <c r="R923" s="39"/>
+      <c r="S923" s="39"/>
+      <c r="T923" s="39"/>
     </row>
     <row r="924" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A924" s="30"/>
-      <c r="B924" s="30"/>
-      <c r="C924" s="30"/>
-      <c r="D924" s="30"/>
-      <c r="E924" s="30"/>
-      <c r="F924" s="30"/>
-      <c r="G924" s="30"/>
-      <c r="H924" s="30"/>
-      <c r="I924" s="30"/>
-      <c r="J924" s="30"/>
-      <c r="K924" s="30"/>
-      <c r="L924" s="30"/>
-      <c r="M924" s="30"/>
-      <c r="N924" s="30"/>
-      <c r="O924" s="30"/>
-      <c r="P924" s="30"/>
-      <c r="Q924" s="30"/>
-      <c r="R924" s="30"/>
-      <c r="S924" s="30"/>
-      <c r="T924" s="30"/>
+      <c r="A924" s="39"/>
+      <c r="B924" s="39"/>
+      <c r="C924" s="39"/>
+      <c r="D924" s="39"/>
+      <c r="E924" s="39"/>
+      <c r="F924" s="39"/>
+      <c r="G924" s="39"/>
+      <c r="H924" s="39"/>
+      <c r="I924" s="39"/>
+      <c r="J924" s="39"/>
+      <c r="K924" s="39"/>
+      <c r="L924" s="39"/>
+      <c r="M924" s="39"/>
+      <c r="N924" s="39"/>
+      <c r="O924" s="39"/>
+      <c r="P924" s="39"/>
+      <c r="Q924" s="39"/>
+      <c r="R924" s="39"/>
+      <c r="S924" s="39"/>
+      <c r="T924" s="39"/>
     </row>
     <row r="925" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
@@ -52290,74 +52281,74 @@
       <c r="T926" s="23"/>
     </row>
     <row r="927" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A927" s="29" t="s">
+      <c r="A927" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B927" s="30"/>
-      <c r="C927" s="30"/>
-      <c r="D927" s="30"/>
-      <c r="E927" s="30"/>
-      <c r="F927" s="30"/>
-      <c r="G927" s="30"/>
-      <c r="H927" s="30"/>
-      <c r="I927" s="30"/>
-      <c r="J927" s="30"/>
-      <c r="K927" s="30"/>
-      <c r="L927" s="30"/>
-      <c r="M927" s="30"/>
-      <c r="N927" s="30"/>
-      <c r="O927" s="30"/>
-      <c r="P927" s="30"/>
-      <c r="Q927" s="30"/>
-      <c r="R927" s="30"/>
-      <c r="S927" s="30"/>
-      <c r="T927" s="30"/>
+      <c r="B927" s="39"/>
+      <c r="C927" s="39"/>
+      <c r="D927" s="39"/>
+      <c r="E927" s="39"/>
+      <c r="F927" s="39"/>
+      <c r="G927" s="39"/>
+      <c r="H927" s="39"/>
+      <c r="I927" s="39"/>
+      <c r="J927" s="39"/>
+      <c r="K927" s="39"/>
+      <c r="L927" s="39"/>
+      <c r="M927" s="39"/>
+      <c r="N927" s="39"/>
+      <c r="O927" s="39"/>
+      <c r="P927" s="39"/>
+      <c r="Q927" s="39"/>
+      <c r="R927" s="39"/>
+      <c r="S927" s="39"/>
+      <c r="T927" s="39"/>
     </row>
     <row r="928" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A928" s="29" t="s">
+      <c r="A928" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B928" s="30"/>
-      <c r="C928" s="30"/>
-      <c r="D928" s="30"/>
-      <c r="E928" s="30"/>
-      <c r="F928" s="30"/>
-      <c r="G928" s="30"/>
-      <c r="H928" s="30"/>
-      <c r="I928" s="30"/>
-      <c r="J928" s="30"/>
-      <c r="K928" s="30"/>
-      <c r="L928" s="30"/>
-      <c r="M928" s="30"/>
-      <c r="N928" s="30"/>
-      <c r="O928" s="30"/>
-      <c r="P928" s="30"/>
-      <c r="Q928" s="30"/>
-      <c r="R928" s="30"/>
-      <c r="S928" s="30"/>
-      <c r="T928" s="30"/>
+      <c r="B928" s="39"/>
+      <c r="C928" s="39"/>
+      <c r="D928" s="39"/>
+      <c r="E928" s="39"/>
+      <c r="F928" s="39"/>
+      <c r="G928" s="39"/>
+      <c r="H928" s="39"/>
+      <c r="I928" s="39"/>
+      <c r="J928" s="39"/>
+      <c r="K928" s="39"/>
+      <c r="L928" s="39"/>
+      <c r="M928" s="39"/>
+      <c r="N928" s="39"/>
+      <c r="O928" s="39"/>
+      <c r="P928" s="39"/>
+      <c r="Q928" s="39"/>
+      <c r="R928" s="39"/>
+      <c r="S928" s="39"/>
+      <c r="T928" s="39"/>
     </row>
     <row r="929" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A929" s="30"/>
-      <c r="B929" s="30"/>
-      <c r="C929" s="30"/>
-      <c r="D929" s="30"/>
-      <c r="E929" s="30"/>
-      <c r="F929" s="30"/>
-      <c r="G929" s="30"/>
-      <c r="H929" s="30"/>
-      <c r="I929" s="30"/>
-      <c r="J929" s="30"/>
-      <c r="K929" s="30"/>
-      <c r="L929" s="30"/>
-      <c r="M929" s="30"/>
-      <c r="N929" s="30"/>
-      <c r="O929" s="30"/>
-      <c r="P929" s="30"/>
-      <c r="Q929" s="30"/>
-      <c r="R929" s="30"/>
-      <c r="S929" s="30"/>
-      <c r="T929" s="30"/>
+      <c r="A929" s="39"/>
+      <c r="B929" s="39"/>
+      <c r="C929" s="39"/>
+      <c r="D929" s="39"/>
+      <c r="E929" s="39"/>
+      <c r="F929" s="39"/>
+      <c r="G929" s="39"/>
+      <c r="H929" s="39"/>
+      <c r="I929" s="39"/>
+      <c r="J929" s="39"/>
+      <c r="K929" s="39"/>
+      <c r="L929" s="39"/>
+      <c r="M929" s="39"/>
+      <c r="N929" s="39"/>
+      <c r="O929" s="39"/>
+      <c r="P929" s="39"/>
+      <c r="Q929" s="39"/>
+      <c r="R929" s="39"/>
+      <c r="S929" s="39"/>
+      <c r="T929" s="39"/>
     </row>
     <row r="930" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
@@ -52456,74 +52447,74 @@
       <c r="T931" s="23"/>
     </row>
     <row r="932" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A932" s="29" t="s">
+      <c r="A932" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B932" s="30"/>
-      <c r="C932" s="30"/>
-      <c r="D932" s="30"/>
-      <c r="E932" s="30"/>
-      <c r="F932" s="30"/>
-      <c r="G932" s="30"/>
-      <c r="H932" s="30"/>
-      <c r="I932" s="30"/>
-      <c r="J932" s="30"/>
-      <c r="K932" s="30"/>
-      <c r="L932" s="30"/>
-      <c r="M932" s="30"/>
-      <c r="N932" s="30"/>
-      <c r="O932" s="30"/>
-      <c r="P932" s="30"/>
-      <c r="Q932" s="30"/>
-      <c r="R932" s="30"/>
-      <c r="S932" s="30"/>
-      <c r="T932" s="30"/>
+      <c r="B932" s="39"/>
+      <c r="C932" s="39"/>
+      <c r="D932" s="39"/>
+      <c r="E932" s="39"/>
+      <c r="F932" s="39"/>
+      <c r="G932" s="39"/>
+      <c r="H932" s="39"/>
+      <c r="I932" s="39"/>
+      <c r="J932" s="39"/>
+      <c r="K932" s="39"/>
+      <c r="L932" s="39"/>
+      <c r="M932" s="39"/>
+      <c r="N932" s="39"/>
+      <c r="O932" s="39"/>
+      <c r="P932" s="39"/>
+      <c r="Q932" s="39"/>
+      <c r="R932" s="39"/>
+      <c r="S932" s="39"/>
+      <c r="T932" s="39"/>
     </row>
     <row r="933" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A933" s="29" t="s">
+      <c r="A933" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B933" s="30"/>
-      <c r="C933" s="30"/>
-      <c r="D933" s="30"/>
-      <c r="E933" s="30"/>
-      <c r="F933" s="30"/>
-      <c r="G933" s="30"/>
-      <c r="H933" s="30"/>
-      <c r="I933" s="30"/>
-      <c r="J933" s="30"/>
-      <c r="K933" s="30"/>
-      <c r="L933" s="30"/>
-      <c r="M933" s="30"/>
-      <c r="N933" s="30"/>
-      <c r="O933" s="30"/>
-      <c r="P933" s="30"/>
-      <c r="Q933" s="30"/>
-      <c r="R933" s="30"/>
-      <c r="S933" s="30"/>
-      <c r="T933" s="30"/>
+      <c r="B933" s="39"/>
+      <c r="C933" s="39"/>
+      <c r="D933" s="39"/>
+      <c r="E933" s="39"/>
+      <c r="F933" s="39"/>
+      <c r="G933" s="39"/>
+      <c r="H933" s="39"/>
+      <c r="I933" s="39"/>
+      <c r="J933" s="39"/>
+      <c r="K933" s="39"/>
+      <c r="L933" s="39"/>
+      <c r="M933" s="39"/>
+      <c r="N933" s="39"/>
+      <c r="O933" s="39"/>
+      <c r="P933" s="39"/>
+      <c r="Q933" s="39"/>
+      <c r="R933" s="39"/>
+      <c r="S933" s="39"/>
+      <c r="T933" s="39"/>
     </row>
     <row r="934" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A934" s="30"/>
-      <c r="B934" s="30"/>
-      <c r="C934" s="30"/>
-      <c r="D934" s="30"/>
-      <c r="E934" s="30"/>
-      <c r="F934" s="30"/>
-      <c r="G934" s="30"/>
-      <c r="H934" s="30"/>
-      <c r="I934" s="30"/>
-      <c r="J934" s="30"/>
-      <c r="K934" s="30"/>
-      <c r="L934" s="30"/>
-      <c r="M934" s="30"/>
-      <c r="N934" s="30"/>
-      <c r="O934" s="30"/>
-      <c r="P934" s="30"/>
-      <c r="Q934" s="30"/>
-      <c r="R934" s="30"/>
-      <c r="S934" s="30"/>
-      <c r="T934" s="30"/>
+      <c r="A934" s="39"/>
+      <c r="B934" s="39"/>
+      <c r="C934" s="39"/>
+      <c r="D934" s="39"/>
+      <c r="E934" s="39"/>
+      <c r="F934" s="39"/>
+      <c r="G934" s="39"/>
+      <c r="H934" s="39"/>
+      <c r="I934" s="39"/>
+      <c r="J934" s="39"/>
+      <c r="K934" s="39"/>
+      <c r="L934" s="39"/>
+      <c r="M934" s="39"/>
+      <c r="N934" s="39"/>
+      <c r="O934" s="39"/>
+      <c r="P934" s="39"/>
+      <c r="Q934" s="39"/>
+      <c r="R934" s="39"/>
+      <c r="S934" s="39"/>
+      <c r="T934" s="39"/>
     </row>
     <row r="935" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
@@ -52623,18 +52614,78 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A905:T905"/>
-    <mergeCell ref="A672:T672"/>
-    <mergeCell ref="A337:T337"/>
-    <mergeCell ref="A735:T735"/>
-    <mergeCell ref="A420:T420"/>
-    <mergeCell ref="A671:T671"/>
-    <mergeCell ref="A614:T614"/>
-    <mergeCell ref="A588:T588"/>
-    <mergeCell ref="A839:T839"/>
-    <mergeCell ref="A904:T904"/>
-    <mergeCell ref="A485:T485"/>
-    <mergeCell ref="A697:T697"/>
+    <mergeCell ref="A933:T933"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A85:T85"/>
+    <mergeCell ref="A653:T653"/>
+    <mergeCell ref="A837:T837"/>
+    <mergeCell ref="A615:T615"/>
+    <mergeCell ref="A587:T587"/>
+    <mergeCell ref="A403:T403"/>
+    <mergeCell ref="A28:T28"/>
+    <mergeCell ref="A151:T151"/>
+    <mergeCell ref="A279:T279"/>
+    <mergeCell ref="A838:T838"/>
+    <mergeCell ref="A112:T112"/>
+    <mergeCell ref="A234:T234"/>
+    <mergeCell ref="A532:T532"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A568:T568"/>
+    <mergeCell ref="A445:T445"/>
+    <mergeCell ref="A196:T196"/>
+    <mergeCell ref="A613:T613"/>
+    <mergeCell ref="A487:T487"/>
+    <mergeCell ref="A68:T68"/>
+    <mergeCell ref="A486:T486"/>
+    <mergeCell ref="A197:T197"/>
+    <mergeCell ref="A934:T934"/>
+    <mergeCell ref="A153:T153"/>
+    <mergeCell ref="A865:T865"/>
+    <mergeCell ref="A170:T170"/>
+    <mergeCell ref="A699:T699"/>
+    <mergeCell ref="A67:T67"/>
+    <mergeCell ref="A172:T172"/>
+    <mergeCell ref="A110:T110"/>
+    <mergeCell ref="A754:T754"/>
+    <mergeCell ref="A819:T819"/>
+    <mergeCell ref="A278:T278"/>
+    <mergeCell ref="A336:T336"/>
+    <mergeCell ref="A318:T318"/>
+    <mergeCell ref="A401:T401"/>
+    <mergeCell ref="A818:T818"/>
+    <mergeCell ref="A927:T927"/>
+    <mergeCell ref="A504:T504"/>
+    <mergeCell ref="A569:T569"/>
+    <mergeCell ref="A280:T280"/>
+    <mergeCell ref="A338:T338"/>
+    <mergeCell ref="A755:T755"/>
+    <mergeCell ref="A780:T780"/>
+    <mergeCell ref="A820:T820"/>
+    <mergeCell ref="A255:T255"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A84:T84"/>
+    <mergeCell ref="A737:T737"/>
+    <mergeCell ref="A253:T253"/>
+    <mergeCell ref="A419:T419"/>
+    <mergeCell ref="A779:T779"/>
+    <mergeCell ref="A317:T317"/>
+    <mergeCell ref="A198:T198"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="A111:T111"/>
+    <mergeCell ref="A505:T505"/>
+    <mergeCell ref="A319:T319"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="A402:T402"/>
+    <mergeCell ref="A589:T589"/>
+    <mergeCell ref="A531:T531"/>
+    <mergeCell ref="A69:T69"/>
+    <mergeCell ref="A152:T152"/>
+    <mergeCell ref="A673:T673"/>
+    <mergeCell ref="A654:T654"/>
+    <mergeCell ref="A736:T736"/>
+    <mergeCell ref="A86:T86"/>
+    <mergeCell ref="A506:T506"/>
+    <mergeCell ref="A362:T362"/>
     <mergeCell ref="A236:T236"/>
     <mergeCell ref="A421:T421"/>
     <mergeCell ref="A932:T932"/>
@@ -52659,78 +52710,18 @@
     <mergeCell ref="A364:T364"/>
     <mergeCell ref="A652:T652"/>
     <mergeCell ref="A928:T928"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A84:T84"/>
-    <mergeCell ref="A737:T737"/>
-    <mergeCell ref="A253:T253"/>
-    <mergeCell ref="A419:T419"/>
-    <mergeCell ref="A779:T779"/>
-    <mergeCell ref="A317:T317"/>
-    <mergeCell ref="A198:T198"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="A111:T111"/>
-    <mergeCell ref="A505:T505"/>
-    <mergeCell ref="A319:T319"/>
-    <mergeCell ref="A29:T29"/>
-    <mergeCell ref="A402:T402"/>
-    <mergeCell ref="A589:T589"/>
-    <mergeCell ref="A531:T531"/>
-    <mergeCell ref="A69:T69"/>
-    <mergeCell ref="A152:T152"/>
-    <mergeCell ref="A673:T673"/>
-    <mergeCell ref="A654:T654"/>
-    <mergeCell ref="A736:T736"/>
-    <mergeCell ref="A86:T86"/>
-    <mergeCell ref="A506:T506"/>
-    <mergeCell ref="A362:T362"/>
-    <mergeCell ref="A934:T934"/>
-    <mergeCell ref="A153:T153"/>
-    <mergeCell ref="A865:T865"/>
-    <mergeCell ref="A170:T170"/>
-    <mergeCell ref="A699:T699"/>
-    <mergeCell ref="A67:T67"/>
-    <mergeCell ref="A172:T172"/>
-    <mergeCell ref="A110:T110"/>
-    <mergeCell ref="A754:T754"/>
-    <mergeCell ref="A819:T819"/>
-    <mergeCell ref="A278:T278"/>
-    <mergeCell ref="A336:T336"/>
-    <mergeCell ref="A318:T318"/>
-    <mergeCell ref="A401:T401"/>
-    <mergeCell ref="A818:T818"/>
-    <mergeCell ref="A927:T927"/>
-    <mergeCell ref="A504:T504"/>
-    <mergeCell ref="A569:T569"/>
-    <mergeCell ref="A280:T280"/>
-    <mergeCell ref="A338:T338"/>
-    <mergeCell ref="A755:T755"/>
-    <mergeCell ref="A780:T780"/>
-    <mergeCell ref="A820:T820"/>
-    <mergeCell ref="A255:T255"/>
-    <mergeCell ref="A933:T933"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A85:T85"/>
-    <mergeCell ref="A653:T653"/>
-    <mergeCell ref="A837:T837"/>
-    <mergeCell ref="A615:T615"/>
-    <mergeCell ref="A587:T587"/>
-    <mergeCell ref="A403:T403"/>
-    <mergeCell ref="A28:T28"/>
-    <mergeCell ref="A151:T151"/>
-    <mergeCell ref="A279:T279"/>
-    <mergeCell ref="A838:T838"/>
-    <mergeCell ref="A112:T112"/>
-    <mergeCell ref="A234:T234"/>
-    <mergeCell ref="A532:T532"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A568:T568"/>
-    <mergeCell ref="A445:T445"/>
-    <mergeCell ref="A196:T196"/>
-    <mergeCell ref="A613:T613"/>
-    <mergeCell ref="A487:T487"/>
-    <mergeCell ref="A68:T68"/>
-    <mergeCell ref="A486:T486"/>
-    <mergeCell ref="A197:T197"/>
+    <mergeCell ref="A905:T905"/>
+    <mergeCell ref="A672:T672"/>
+    <mergeCell ref="A337:T337"/>
+    <mergeCell ref="A735:T735"/>
+    <mergeCell ref="A420:T420"/>
+    <mergeCell ref="A671:T671"/>
+    <mergeCell ref="A614:T614"/>
+    <mergeCell ref="A588:T588"/>
+    <mergeCell ref="A839:T839"/>
+    <mergeCell ref="A904:T904"/>
+    <mergeCell ref="A485:T485"/>
+    <mergeCell ref="A697:T697"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -52751,74 +52742,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -53807,74 +53798,74 @@
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -55361,74 +55352,74 @@
       <c r="T64" s="23"/>
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
     </row>
     <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
     </row>
     <row r="68" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -56118,74 +56109,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -57612,74 +57603,74 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -59916,74 +59907,74 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
     </row>
     <row r="70" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -60940,14 +60931,14 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="7" width="13.77734375" customWidth="1"/>
@@ -60955,1222 +60946,1222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
+      <c r="A2" s="35">
         <v>45689</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="31">
         <v>2548344</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <v>1916676</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="38">
+      <c r="F2" s="33"/>
+      <c r="G2" s="32">
         <v>1.33</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="33">
         <v>2605</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="A3" s="35">
         <v>45689</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>5028898</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>5588107</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="33">
         <v>-2.9</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="32">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="33">
         <v>4233</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4" s="35">
         <v>45690</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>2747810</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>1681122</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38">
+      <c r="F4" s="30"/>
+      <c r="G4" s="32">
         <v>1.63</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <v>2727</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="A5" s="35">
         <v>45690</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>4679387</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>4860114</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <v>3.2</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="32">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="30">
         <v>3674</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6" s="35">
         <v>45691</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="31">
         <v>2784530</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>1818244</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38">
+      <c r="F6" s="30"/>
+      <c r="G6" s="32">
         <v>1.51</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="30">
         <v>2481</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="35">
         <v>45691</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>5378939</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>5293079</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="32">
         <v>1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="30">
         <v>3917</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="35">
         <v>45692</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <v>1655769</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>1415060</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36">
+      <c r="F8" s="30"/>
+      <c r="G8" s="34">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="30">
         <v>1708</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9" s="35">
         <v>45692</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <v>4582639</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>4124107</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <v>0.3</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="30">
         <v>3577</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="35">
         <v>45693</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="31">
         <v>1739420</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>1475711</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36">
+      <c r="F10" s="30"/>
+      <c r="G10" s="34">
         <v>1.78</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="30">
         <v>1857</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="35">
         <v>45693</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <v>4153185</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <v>4328524</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="30">
         <v>-12.2</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>0.95099999999999996</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="30">
         <v>3405</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="35">
         <v>45694</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <v>1662818</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>1539626</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36">
+      <c r="F12" s="30"/>
+      <c r="G12" s="34">
         <v>1.08</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>1797</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
+      <c r="A13" s="35">
         <v>45694</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>4116977</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>4531974</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="30">
         <v>-14.3</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>0.87</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="30">
         <v>3175</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="39">
+      <c r="A14" s="35">
         <v>45695</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="31">
         <v>1525136</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <v>1430243</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36">
+      <c r="F14" s="30"/>
+      <c r="G14" s="34">
         <v>1.06</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="30">
         <v>1761</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="39">
+      <c r="A15" s="35">
         <v>45695</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="31">
         <v>4349725</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>4166475</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="30">
         <v>-3.2</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>1.03</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="30">
         <v>3473</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="39">
+      <c r="A16" s="35">
         <v>45696</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="31">
         <v>2020704</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>1542353</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36">
+      <c r="F16" s="30"/>
+      <c r="G16" s="34">
         <v>1.3</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <v>2210</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+      <c r="A17" s="35">
         <v>45696</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="31">
         <v>4185978</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>4467174</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="30">
         <v>-16</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>0.92</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <v>3652</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="39">
+      <c r="A18" s="35">
         <v>45697</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>2477391</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>1551457</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36">
+      <c r="F18" s="30"/>
+      <c r="G18" s="34">
         <v>1.59</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <v>2687</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+      <c r="A19" s="35">
         <v>45697</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>4015934</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>4476227</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="30">
         <v>-16.899999999999999</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>3566</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="39">
+      <c r="A20" s="35">
         <v>45698</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="31">
         <v>1676432</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>1673149</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36">
+      <c r="F20" s="30"/>
+      <c r="G20" s="34">
         <v>1</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="30">
         <v>1699</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+      <c r="A21" s="35">
         <v>45698</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <v>4421840</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="31">
         <v>4711282</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="30">
         <v>-15.8</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="34">
         <v>0.92900000000000005</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>3386</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
+      <c r="A22" s="35">
         <v>45699</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <v>1634914</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>1849324</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36">
+      <c r="F22" s="30"/>
+      <c r="G22" s="34">
         <v>0.88</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="30">
         <v>1711</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
+      <c r="A23" s="35">
         <v>45699</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>4497220</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <v>5313994</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="30">
         <v>-23.1</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="30">
         <v>3497</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="A24" s="35">
         <v>45700</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="31">
         <v>1800788</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>1603642</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36">
+      <c r="F24" s="30"/>
+      <c r="G24" s="34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>1860</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="35">
         <v>45700</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <v>4323343</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <v>4590044</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="30">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="34">
         <v>0.93</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="30">
         <v>3625</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
+      <c r="A26" s="35">
         <v>45701</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="31">
         <v>1925127</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>1560963</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36">
+      <c r="F26" s="30"/>
+      <c r="G26" s="34">
         <v>1.23</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="30">
         <v>2213</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+      <c r="A27" s="35">
         <v>45701</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <v>4994600</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>4397391</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="30">
         <v>2.5</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="30">
         <v>4064</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
+      <c r="A28" s="35">
         <v>45702</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="31">
         <v>1960917</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>1841375</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36">
+      <c r="F28" s="30"/>
+      <c r="G28" s="34">
         <v>1.06</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="30">
         <v>2142</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="39">
+      <c r="A29" s="35">
         <v>45702</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="31">
         <v>4379535</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="31">
         <v>5409962</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="30">
         <v>-18.100000000000001</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="34">
         <v>0.79900000000000004</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="30">
         <v>3747</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="39">
+      <c r="A30" s="35">
         <v>45703</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="31">
         <v>2283569</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="31">
         <v>1939525</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="36">
+      <c r="F30" s="30"/>
+      <c r="G30" s="34">
         <v>1.17</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="30">
         <v>2510</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
+      <c r="A31" s="35">
         <v>45703</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <v>4998115</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="31">
         <v>5659506</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="30">
         <v>-10.9</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <v>0.874</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="30">
         <v>4186</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
+      <c r="A32" s="35">
         <v>45704</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="31">
         <v>3080690</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="31">
         <v>1792258</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36">
+      <c r="F32" s="30"/>
+      <c r="G32" s="34">
         <v>1.71</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="30">
         <v>2995</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
+      <c r="A33" s="35">
         <v>45704</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="31">
         <v>4721184</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="31">
         <v>5175988</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="30">
         <v>-11</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="34">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="30">
         <v>3824</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="39">
+      <c r="A34" s="35">
         <v>45705</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="31">
         <v>2207495</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="31">
         <v>1946735</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="36">
+      <c r="F34" s="30"/>
+      <c r="G34" s="34">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="30">
         <v>1934</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
+      <c r="A35" s="35">
         <v>45705</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="31">
         <v>4998572</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="31">
         <v>5714092</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="30">
         <v>-8.9</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="32">
         <v>0.86</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="30">
         <v>3445</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="39">
+      <c r="A36" s="35">
         <v>45706</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="31">
         <v>1875964</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="31">
         <v>1555768</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="36">
+      <c r="F36" s="30"/>
+      <c r="G36" s="34">
         <v>1.19</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="30">
         <v>1889</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="39">
+      <c r="A37" s="35">
         <v>45706</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="31">
         <v>4420076</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="31">
         <v>4563811</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="30">
         <v>-9.9</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="34">
         <v>0.96</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="30">
         <v>3529</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
+      <c r="A38" s="35">
         <v>45707</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="31">
         <v>1595281</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="31">
         <v>1467999</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38">
+      <c r="F38" s="30"/>
+      <c r="G38" s="32">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="30">
         <v>1681</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="39">
+      <c r="A39" s="35">
         <v>45707</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="31">
         <v>3987002</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="31">
         <v>4310707</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="30">
         <v>-14.7</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="34">
         <v>0.91200000000000003</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="30">
         <v>3251</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="39">
+      <c r="A40" s="35">
         <v>45708</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="31">
         <v>1497104</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>1473864</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="36">
+      <c r="F40" s="30"/>
+      <c r="G40" s="34">
         <v>1.01</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="30">
         <v>1664</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
+      <c r="A41" s="35">
         <v>45708</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="31">
         <v>3731965</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="31">
         <v>4326466</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="30">
         <v>-19.2</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="34">
         <v>0.85399999999999998</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="30">
         <v>3091</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="39">
+      <c r="A42" s="35">
         <v>45709</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="31">
         <v>1410129</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <v>1679076</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="36">
+      <c r="F42" s="30"/>
+      <c r="G42" s="34">
         <v>0.83</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="30">
         <v>1623</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="39">
+      <c r="A43" s="35">
         <v>45709</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="31">
         <v>4142589</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="31">
         <v>4925232</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="30">
         <v>-13.3</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="34">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="30">
         <v>3391</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="39">
+      <c r="A44" s="35">
         <v>45710</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="31">
         <v>1869302</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="31">
         <v>1531178</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36">
+      <c r="F44" s="30"/>
+      <c r="G44" s="34">
         <v>1.22</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="30">
         <v>2088</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="39">
+      <c r="A45" s="35">
         <v>45710</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="31">
         <v>4078155</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="31">
         <v>4453371</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="30">
         <v>-13.1</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="34">
         <v>0.90700000000000003</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="30">
         <v>3632</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="39">
+      <c r="A46" s="35">
         <v>45711</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="36">
         <v>46523967</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="36">
         <v>37809359</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="40">
+      <c r="F46" s="30"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="30">
         <v>45842</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="39">
+      <c r="A47" s="35">
         <v>45711</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="36">
         <v>102284681</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="36">
         <v>109761184</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="30">
         <v>-10.1</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="37">
         <v>0.92099999999999993</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="30">
         <v>79340</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="39">
+      <c r="A48" s="35">
         <v>45711</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="36">
         <v>148808648</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="36">
         <v>147570543</v>
       </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="34">
+      <c r="F48" s="38"/>
+      <c r="G48" s="32">
         <v>1</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="30">
         <v>125182</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="39">
+      <c r="A49" s="35">
         <v>45711</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="36">
         <v>55760714</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="36">
         <v>71951825</v>
       </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="32">
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="30">
         <v>45842</v>
       </c>
     </row>

--- a/resultado1.xlsx
+++ b/resultado1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\INTENTO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499D01D6-D6A6-41C0-88AD-C96CCA338C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46FF81-022C-4C95-8CA0-712A92CEF264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{524B82C4-7FA8-4313-B6D8-8C9D00E52D46}"/>
   </bookViews>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD1849-BCA9-44EA-876A-076DC2C29795}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,7 +1688,9 @@
         <v>37809359</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6">
+        <v>1.23</v>
+      </c>
       <c r="H46" s="3">
         <v>45842</v>
       </c>

--- a/resultado1.xlsx
+++ b/resultado1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\INTENTO4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\INTENTO5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46FF81-022C-4C95-8CA0-712A92CEF264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE66D6-6DA2-4C26-9992-DC0CD2EAABC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{524B82C4-7FA8-4313-B6D8-8C9D00E52D46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>FECHA</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>SUMA  DE CLUBES</t>
-  </si>
-  <si>
-    <t>DIFERENCIA  ENTRE CLUBES</t>
   </si>
 </sst>
 </file>
@@ -167,7 +164,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,7 +191,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -531,18 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD1849-BCA9-44EA-876A-076DC2C29795}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1737,34 +1733,14 @@
       <c r="E48" s="8">
         <v>147570543</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="3">
+        <v>29</v>
+      </c>
       <c r="G48" s="6">
         <v>1</v>
       </c>
       <c r="H48" s="3">
         <v>125182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>45711</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="8">
-        <v>55760714</v>
-      </c>
-      <c r="E49" s="8">
-        <v>71951825</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="3">
-        <v>45842</v>
       </c>
     </row>
   </sheetData>
